--- a/work-in-progress/Peppol Code Lists - Document types v8.4.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v8.4.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771FF61F-940B-4BD5-92F7-DAEB919807DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7C6942-8418-46B2-A49A-CE2DB5C12275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="1845" windowWidth="22695" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23565" yWindow="1065" windowWidth="27135" windowHeight="19170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Type" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Document Type'!$A$1:$L$187</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Document Type'!$A$1:$L$190</definedName>
     <definedName name="_ftn1" localSheetId="0">'Document Type'!#REF!</definedName>
     <definedName name="_ftn2" localSheetId="0">'Document Type'!#REF!</definedName>
     <definedName name="_ftn3" localSheetId="0">'Document Type'!#REF!</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="527">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -691,9 +691,6 @@
   </si>
   <si>
     <t>TICC-78</t>
-  </si>
-  <si>
-    <t>TICC-117; TICC-136</t>
   </si>
   <si>
     <t>TICC-137</t>
@@ -1158,10 +1155,6 @@
     <t>TICC-189</t>
   </si>
   <si>
-    <t>Typo in syntax version
-TICC-135</t>
-  </si>
-  <si>
     <t>Norwegian Payment</t>
   </si>
   <si>
@@ -1350,9 +1343,6 @@
   </si>
   <si>
     <t>PEPPOL-1859</t>
-  </si>
-  <si>
-    <t>TICC-55</t>
   </si>
   <si>
     <t>TICC-37</t>
@@ -1628,13 +1618,39 @@
     <t>Peppol Order Response Advanced</t>
   </si>
   <si>
-    <t>TICC-117
-TICC-237</t>
-  </si>
-  <si>
     <t>cenbii-procid-ubl::urn:fdc:peppol.eu:poacc:bis:ordering:3
 cenbii-procid-ubl::urn:fdc:peppol.eu:poacc:bis:order_only:3
 cenbii-procid-ubl::urn:fdc:peppol.eu:poacc:bis:advanced_ordering:3</t>
+  </si>
+  <si>
+    <t>removed</t>
+  </si>
+  <si>
+    <t>TICC-55
+TICC-245</t>
+  </si>
+  <si>
+    <t>TICC-117
+TICC-237
+TICC-245</t>
+  </si>
+  <si>
+    <t>TICC-117
+TICC-136
+TICC-245</t>
+  </si>
+  <si>
+    <t>TICC-118
+TICC-245</t>
+  </si>
+  <si>
+    <t>TICC-135
+TICC-245</t>
+  </si>
+  <si>
+    <t>Typo in syntax version
+TICC-135
+TICC-245</t>
   </si>
 </sst>
 </file>
@@ -1705,12 +1721,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1737,7 +1759,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1758,9 +1780,6 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1799,6 +1818,31 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2210,11 +2254,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45987FB-91F4-488D-A9D3-2F3FAED3E07C}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A190" sqref="A190"/>
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2222,10 +2267,10 @@
     <col min="1" max="1" width="47.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" style="5" customWidth="1"/>
     <col min="3" max="3" width="103.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="6" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" style="5"/>
@@ -2244,23 +2289,23 @@
       <c r="C1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>430</v>
+      <c r="D1" s="16" t="s">
+        <v>428</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>428</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>429</v>
+        <v>369</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>427</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>113</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>114</v>
@@ -2272,7 +2317,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="45">
+    <row r="2" spans="1:12" ht="45" hidden="1">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -2282,11 +2327,11 @@
       <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F2" s="6">
         <v>2</v>
@@ -2305,7 +2350,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="45">
+    <row r="3" spans="1:12" ht="45" hidden="1">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -2315,11 +2360,11 @@
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F3" s="6">
         <v>2</v>
@@ -2338,7 +2383,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="45">
+    <row r="4" spans="1:12" ht="45" hidden="1">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -2348,11 +2393,11 @@
       <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F4" s="6">
         <v>2</v>
@@ -2371,7 +2416,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="45">
+    <row r="5" spans="1:12" ht="45" hidden="1">
       <c r="A5" s="5" t="s">
         <v>100</v>
       </c>
@@ -2381,11 +2426,11 @@
       <c r="C5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F5" s="6">
         <v>2</v>
@@ -2404,7 +2449,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="45">
+    <row r="6" spans="1:12" ht="45" hidden="1">
       <c r="A6" s="5" t="s">
         <v>103</v>
       </c>
@@ -2414,11 +2459,11 @@
       <c r="C6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F6" s="6">
         <v>2</v>
@@ -2437,7 +2482,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="45">
+    <row r="7" spans="1:12" ht="45" hidden="1">
       <c r="A7" s="5" t="s">
         <v>103</v>
       </c>
@@ -2447,11 +2492,11 @@
       <c r="C7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F7" s="6">
         <v>2</v>
@@ -2470,7 +2515,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="45">
+    <row r="8" spans="1:12" ht="45" hidden="1">
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
@@ -2480,11 +2525,11 @@
       <c r="C8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="18" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F8" s="6">
         <v>7</v>
@@ -2503,7 +2548,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30">
+    <row r="9" spans="1:12" ht="30" hidden="1">
       <c r="A9" s="4" t="s">
         <v>28</v>
       </c>
@@ -2513,11 +2558,11 @@
       <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F9" s="6">
         <v>2</v>
@@ -2536,9 +2581,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="45">
+    <row r="10" spans="1:12" ht="45" hidden="1">
       <c r="A10" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>56</v>
@@ -2546,17 +2591,17 @@
       <c r="C10" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F10" s="6">
         <v>3</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I10" s="5" t="b">
         <f>TRUE</f>
@@ -2572,7 +2617,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="45">
+    <row r="11" spans="1:12" ht="45" hidden="1">
       <c r="A11" s="4" t="s">
         <v>29</v>
       </c>
@@ -2582,11 +2627,11 @@
       <c r="C11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="18">
         <v>3</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F11" s="6">
         <v>7</v>
@@ -2605,7 +2650,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30">
+    <row r="12" spans="1:12" ht="30" hidden="1">
       <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
@@ -2615,11 +2660,11 @@
       <c r="C12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F12" s="6">
         <v>2</v>
@@ -2638,7 +2683,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="45">
+    <row r="13" spans="1:12" ht="45" hidden="1">
       <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
@@ -2648,11 +2693,11 @@
       <c r="C13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="18" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F13" s="6">
         <v>7</v>
@@ -2671,7 +2716,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="30">
+    <row r="14" spans="1:12" ht="30" hidden="1">
       <c r="A14" s="4" t="s">
         <v>101</v>
       </c>
@@ -2681,11 +2726,11 @@
       <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F14" s="6">
         <v>2</v>
@@ -2704,7 +2749,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="45">
+    <row r="15" spans="1:12" ht="45" hidden="1">
       <c r="A15" s="4" t="s">
         <v>102</v>
       </c>
@@ -2714,11 +2759,11 @@
       <c r="C15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F15" s="6">
         <v>2</v>
@@ -2737,7 +2782,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="30">
+    <row r="16" spans="1:12" ht="30" hidden="1">
       <c r="A16" s="4" t="s">
         <v>101</v>
       </c>
@@ -2747,11 +2792,11 @@
       <c r="C16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F16" s="6">
         <v>2</v>
@@ -2770,7 +2815,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="45">
+    <row r="17" spans="1:12" ht="45" hidden="1">
       <c r="A17" s="4" t="s">
         <v>91</v>
       </c>
@@ -2780,11 +2825,11 @@
       <c r="C17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="18" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F17" s="6">
         <v>7</v>
@@ -2803,7 +2848,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="45">
+    <row r="18" spans="1:12" ht="45" hidden="1">
       <c r="A18" s="4" t="s">
         <v>92</v>
       </c>
@@ -2813,11 +2858,11 @@
       <c r="C18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="18" t="s">
         <v>27</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F18" s="6">
         <v>7</v>
@@ -2836,7 +2881,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="30">
+    <row r="19" spans="1:12" ht="30" hidden="1">
       <c r="A19" s="5" t="s">
         <v>96</v>
       </c>
@@ -2846,11 +2891,11 @@
       <c r="C19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F19" s="6">
         <v>7</v>
@@ -2869,7 +2914,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="45">
+    <row r="20" spans="1:12" ht="45" hidden="1">
       <c r="A20" s="5" t="s">
         <v>97</v>
       </c>
@@ -2879,11 +2924,11 @@
       <c r="C20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F20" s="6">
         <v>7</v>
@@ -2902,7 +2947,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="45">
+    <row r="21" spans="1:12" ht="45" hidden="1">
       <c r="A21" s="5" t="s">
         <v>97</v>
       </c>
@@ -2912,11 +2957,11 @@
       <c r="C21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F21" s="6">
         <v>7</v>
@@ -2935,7 +2980,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="30">
+    <row r="22" spans="1:12" ht="30" hidden="1">
       <c r="A22" s="5" t="s">
         <v>98</v>
       </c>
@@ -2945,11 +2990,11 @@
       <c r="C22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F22" s="6">
         <v>7</v>
@@ -2968,7 +3013,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="45">
+    <row r="23" spans="1:12" ht="45" hidden="1">
       <c r="A23" s="5" t="s">
         <v>99</v>
       </c>
@@ -2978,11 +3023,11 @@
       <c r="C23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F23" s="6">
         <v>7</v>
@@ -3001,7 +3046,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="30">
+    <row r="24" spans="1:12" ht="30" hidden="1">
       <c r="A24" s="5" t="s">
         <v>98</v>
       </c>
@@ -3011,11 +3056,11 @@
       <c r="C24" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F24" s="6">
         <v>7</v>
@@ -3034,7 +3079,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="45">
+    <row r="25" spans="1:12" ht="45" hidden="1">
       <c r="A25" s="5" t="s">
         <v>34</v>
       </c>
@@ -3044,11 +3089,11 @@
       <c r="C25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="18" t="s">
         <v>23</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F25" s="6">
         <v>2</v>
@@ -3064,7 +3109,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="45">
+    <row r="26" spans="1:12" ht="45" hidden="1">
       <c r="A26" s="5" t="s">
         <v>35</v>
       </c>
@@ -3074,11 +3119,11 @@
       <c r="C26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="18" t="s">
         <v>23</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I26" s="5" t="b">
         <f>FALSE</f>
@@ -3091,7 +3136,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="45">
+    <row r="27" spans="1:12" ht="45" hidden="1">
       <c r="A27" s="5" t="s">
         <v>94</v>
       </c>
@@ -3101,11 +3146,11 @@
       <c r="C27" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="18" t="s">
         <v>27</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F27" s="6">
         <v>7</v>
@@ -3124,9 +3169,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="45">
+    <row r="28" spans="1:12" ht="45" hidden="1">
       <c r="A28" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>56</v>
@@ -3134,17 +3179,17 @@
       <c r="C28" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="18" t="s">
         <v>27</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F28" s="6">
         <v>3</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I28" s="5" t="b">
         <f>TRUE</f>
@@ -3160,7 +3205,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="45">
+    <row r="29" spans="1:12" ht="45" hidden="1">
       <c r="A29" s="5" t="s">
         <v>95</v>
       </c>
@@ -3170,11 +3215,11 @@
       <c r="C29" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="18">
         <v>3</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F29" s="6">
         <v>7</v>
@@ -3193,7 +3238,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="45">
+    <row r="30" spans="1:12" ht="45" hidden="1">
       <c r="A30" s="5" t="s">
         <v>39</v>
       </c>
@@ -3203,11 +3248,11 @@
       <c r="C30" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="18" t="s">
         <v>27</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F30" s="6">
         <v>7</v>
@@ -3226,7 +3271,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="45">
+    <row r="31" spans="1:12" ht="45" hidden="1">
       <c r="A31" s="5" t="s">
         <v>40</v>
       </c>
@@ -3236,11 +3281,11 @@
       <c r="C31" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="18" t="s">
         <v>27</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F31" s="6">
         <v>7</v>
@@ -3259,9 +3304,9 @@
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="30">
+    <row r="32" spans="1:12" ht="30" hidden="1">
       <c r="A32" s="5" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>56</v>
@@ -3269,11 +3314,11 @@
       <c r="C32" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="17">
         <v>2</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I32" s="5" t="b">
         <f>TRUE</f>
@@ -3289,9 +3334,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="30">
+    <row r="33" spans="1:12" ht="30" hidden="1">
       <c r="A33" s="5" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>56</v>
@@ -3299,11 +3344,11 @@
       <c r="C33" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="17">
         <v>2</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I33" s="5" t="b">
         <f>TRUE</f>
@@ -3319,7 +3364,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="45">
+    <row r="34" spans="1:12" ht="45" hidden="1">
       <c r="A34" s="5" t="s">
         <v>93</v>
       </c>
@@ -3329,11 +3374,11 @@
       <c r="C34" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="18">
         <v>3</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I34" s="5" t="b">
         <f>FALSE</f>
@@ -3346,9 +3391,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="45">
+    <row r="35" spans="1:12" ht="45" hidden="1">
       <c r="A35" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>56</v>
@@ -3356,17 +3401,17 @@
       <c r="C35" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D35" s="18">
         <v>3</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I35" s="5" t="b">
         <f>FALSE</f>
@@ -3379,7 +3424,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="45">
+    <row r="36" spans="1:12" ht="45" hidden="1">
       <c r="A36" s="5" t="s">
         <v>125</v>
       </c>
@@ -3387,16 +3432,16 @@
         <v>56</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>298</v>
+        <v>346</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>297</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I36" s="5" t="b">
         <f>FALSE</f>
@@ -3409,9 +3454,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="30">
+    <row r="37" spans="1:12" ht="30" hidden="1">
       <c r="A37" s="5" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>56</v>
@@ -3419,11 +3464,11 @@
       <c r="C37" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="17">
         <v>3</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I37" s="5" t="b">
         <f>TRUE</f>
@@ -3439,9 +3484,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="45">
+    <row r="38" spans="1:12" ht="45" hidden="1">
       <c r="A38" s="5" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>56</v>
@@ -3449,11 +3494,11 @@
       <c r="C38" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="18">
+      <c r="D38" s="17">
         <v>3</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I38" s="5" t="b">
         <f>TRUE</f>
@@ -3469,9 +3514,9 @@
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="45">
+    <row r="39" spans="1:12" ht="45" hidden="1">
       <c r="A39" s="5" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>56</v>
@@ -3479,11 +3524,11 @@
       <c r="C39" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D39" s="17">
         <v>3</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I39" s="5" t="b">
         <f>TRUE</f>
@@ -3499,9 +3544,9 @@
         <v>145</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="45">
+    <row r="40" spans="1:12" ht="45" hidden="1">
       <c r="A40" s="5" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>56</v>
@@ -3509,11 +3554,11 @@
       <c r="C40" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="18">
+      <c r="D40" s="17">
         <v>3</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I40" s="5" t="b">
         <f>TRUE</f>
@@ -3529,9 +3574,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="45">
+    <row r="41" spans="1:12" ht="45" hidden="1">
       <c r="A41" s="5" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>56</v>
@@ -3539,11 +3584,11 @@
       <c r="C41" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="18">
+      <c r="D41" s="17">
         <v>3</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I41" s="5" t="b">
         <f>TRUE</f>
@@ -3559,9 +3604,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="45">
+    <row r="42" spans="1:12" ht="45" hidden="1">
       <c r="A42" s="5" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>56</v>
@@ -3569,11 +3614,11 @@
       <c r="C42" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="18">
+      <c r="D42" s="17">
         <v>3</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I42" s="5" t="b">
         <f>TRUE</f>
@@ -3589,9 +3634,9 @@
         <v>143</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="45">
+    <row r="43" spans="1:12" ht="45" hidden="1">
       <c r="A43" s="5" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>56</v>
@@ -3599,11 +3644,11 @@
       <c r="C43" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="18">
+      <c r="D43" s="17">
         <v>3</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I43" s="5" t="b">
         <f>TRUE</f>
@@ -3619,106 +3664,115 @@
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="30">
-      <c r="A44" s="5" t="s">
+    <row r="44" spans="1:12" s="21" customFormat="1" ht="30">
+      <c r="A44" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" s="5" t="s">
+      <c r="B44" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D44" s="18">
+      <c r="D44" s="23">
         <v>3</v>
       </c>
-      <c r="E44" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="F44" s="6">
+      <c r="E44" s="21" t="s">
+        <v>520</v>
+      </c>
+      <c r="F44" s="24">
         <v>5</v>
       </c>
-      <c r="H44" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="I44" s="5" t="b">
+      <c r="G44" s="25">
+        <v>45070</v>
+      </c>
+      <c r="H44" s="21" t="s">
+        <v>521</v>
+      </c>
+      <c r="I44" s="21" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K44" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="L44" s="7" t="s">
+      <c r="K44" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="L44" s="26" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="30">
-      <c r="A45" s="5" t="s">
+    <row r="45" spans="1:12" s="21" customFormat="1" ht="30">
+      <c r="A45" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" s="5" t="s">
+      <c r="B45" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D45" s="18">
+      <c r="D45" s="23">
         <v>3</v>
       </c>
-      <c r="E45" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="F45" s="6">
+      <c r="E45" s="21" t="s">
+        <v>520</v>
+      </c>
+      <c r="F45" s="24">
         <v>5</v>
       </c>
-      <c r="H45" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="I45" s="5" t="b">
+      <c r="G45" s="25">
+        <v>45070</v>
+      </c>
+      <c r="H45" s="21" t="s">
+        <v>521</v>
+      </c>
+      <c r="I45" s="21" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K45" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="L45" s="7" t="s">
+      <c r="K45" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="L45" s="26" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="30">
-      <c r="A46" s="5" t="s">
+    <row r="46" spans="1:12" s="21" customFormat="1" ht="30">
+      <c r="A46" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C46" s="5" t="s">
+      <c r="B46" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D46" s="18">
+      <c r="D46" s="23">
         <v>3</v>
       </c>
-      <c r="E46" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="F46" s="6">
+      <c r="E46" s="21" t="s">
+        <v>520</v>
+      </c>
+      <c r="F46" s="24">
         <v>5</v>
       </c>
-      <c r="H46" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="I46" s="5" t="b">
+      <c r="G46" s="25">
+        <v>45070</v>
+      </c>
+      <c r="H46" s="21" t="s">
+        <v>521</v>
+      </c>
+      <c r="I46" s="21" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K46" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="L46" s="7" t="s">
+      <c r="K46" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="L46" s="26" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" hidden="1">
       <c r="A47" s="5" t="s">
         <v>61</v>
       </c>
@@ -3728,14 +3782,14 @@
       <c r="C47" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="18">
+      <c r="D47" s="17">
         <v>3</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I47" s="5" t="b">
         <f>FALSE</f>
@@ -3748,7 +3802,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" hidden="1">
       <c r="A48" s="5" t="s">
         <v>62</v>
       </c>
@@ -3758,14 +3812,14 @@
       <c r="C48" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D48" s="18">
+      <c r="D48" s="17">
         <v>3</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I48" s="5" t="b">
         <f>FALSE</f>
@@ -3778,7 +3832,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="30">
+    <row r="49" spans="1:12" ht="30" hidden="1">
       <c r="A49" s="5" t="s">
         <v>63</v>
       </c>
@@ -3788,14 +3842,14 @@
       <c r="C49" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="18">
+      <c r="D49" s="17">
         <v>3</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="I49" s="5" t="b">
         <f>FALSE</f>
@@ -3808,7 +3862,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="30">
+    <row r="50" spans="1:12" ht="30" hidden="1">
       <c r="A50" s="5" t="s">
         <v>64</v>
       </c>
@@ -3818,14 +3872,14 @@
       <c r="C50" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D50" s="18">
+      <c r="D50" s="17">
         <v>3</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="I50" s="5" t="b">
         <f>FALSE</f>
@@ -3838,9 +3892,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="30">
+    <row r="51" spans="1:12" ht="30" hidden="1">
       <c r="A51" s="5" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>56</v>
@@ -3848,11 +3902,11 @@
       <c r="C51" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D51" s="18">
+      <c r="D51" s="17">
         <v>4</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F51" s="6">
         <v>7</v>
@@ -3871,9 +3925,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="30">
+    <row r="52" spans="1:12" ht="30" hidden="1">
       <c r="A52" s="5" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>56</v>
@@ -3881,11 +3935,11 @@
       <c r="C52" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D52" s="18">
+      <c r="D52" s="17">
         <v>4</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I52" s="5" t="b">
         <f>TRUE</f>
@@ -3901,9 +3955,9 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="30">
+    <row r="53" spans="1:12" ht="30" hidden="1">
       <c r="A53" s="5" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>56</v>
@@ -3911,11 +3965,11 @@
       <c r="C53" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D53" s="18">
+      <c r="D53" s="17">
         <v>4</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I53" s="5" t="b">
         <f>TRUE</f>
@@ -3931,9 +3985,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="45">
+    <row r="54" spans="1:12" ht="45" hidden="1">
       <c r="A54" s="5" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>56</v>
@@ -3941,14 +3995,14 @@
       <c r="C54" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D54" s="18">
+      <c r="D54" s="17">
         <v>4</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="I54" s="5" t="b">
         <f>TRUE</f>
@@ -3961,12 +4015,12 @@
         <v>117</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="30">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="30" hidden="1">
       <c r="A55" s="5" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>56</v>
@@ -3974,11 +4028,11 @@
       <c r="C55" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D55" s="18">
+      <c r="D55" s="17">
         <v>4</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I55" s="5" t="b">
         <f>TRUE</f>
@@ -3994,9 +4048,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="30">
+    <row r="56" spans="1:12" ht="30" hidden="1">
       <c r="A56" s="5" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>56</v>
@@ -4004,11 +4058,11 @@
       <c r="C56" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D56" s="18">
+      <c r="D56" s="17">
         <v>4</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I56" s="5" t="b">
         <f>TRUE</f>
@@ -4024,9 +4078,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="30">
+    <row r="57" spans="1:12" ht="30" hidden="1">
       <c r="A57" s="5" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>56</v>
@@ -4034,11 +4088,11 @@
       <c r="C57" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D57" s="18">
+      <c r="D57" s="17">
         <v>4</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I57" s="5" t="b">
         <f>TRUE</f>
@@ -4054,9 +4108,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="30">
+    <row r="58" spans="1:12" ht="30" hidden="1">
       <c r="A58" s="5" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>56</v>
@@ -4064,11 +4118,11 @@
       <c r="C58" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D58" s="18">
+      <c r="D58" s="17">
         <v>4</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I58" s="5" t="b">
         <f>TRUE</f>
@@ -4084,9 +4138,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="30">
+    <row r="59" spans="1:12" ht="30" hidden="1">
       <c r="A59" s="5" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>56</v>
@@ -4094,11 +4148,11 @@
       <c r="C59" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D59" s="18">
+      <c r="D59" s="17">
         <v>4</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I59" s="5" t="b">
         <f>TRUE</f>
@@ -4114,9 +4168,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="30">
+    <row r="60" spans="1:12" ht="30" hidden="1">
       <c r="A60" s="5" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>56</v>
@@ -4124,11 +4178,11 @@
       <c r="C60" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D60" s="18">
+      <c r="D60" s="17">
         <v>4</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I60" s="5" t="b">
         <f>TRUE</f>
@@ -4144,7 +4198,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="30">
+    <row r="61" spans="1:12" ht="30" hidden="1">
       <c r="A61" s="5" t="s">
         <v>79</v>
       </c>
@@ -4154,11 +4208,11 @@
       <c r="C61" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D61" s="18">
+      <c r="D61" s="17">
         <v>4</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I61" s="5" t="b">
         <f>FALSE</f>
@@ -4171,7 +4225,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="30">
+    <row r="62" spans="1:12" ht="30" hidden="1">
       <c r="A62" s="5" t="s">
         <v>81</v>
       </c>
@@ -4181,11 +4235,11 @@
       <c r="C62" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D62" s="18">
+      <c r="D62" s="17">
         <v>4</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I62" s="5" t="b">
         <f>FALSE</f>
@@ -4198,9 +4252,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="30">
+    <row r="63" spans="1:12" ht="30" hidden="1">
       <c r="A63" s="5" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>56</v>
@@ -4208,11 +4262,11 @@
       <c r="C63" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D63" s="18">
+      <c r="D63" s="17">
         <v>4</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I63" s="5" t="b">
         <f>TRUE</f>
@@ -4228,9 +4282,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="45">
+    <row r="64" spans="1:12" ht="45" hidden="1">
       <c r="A64" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>56</v>
@@ -4238,17 +4292,17 @@
       <c r="C64" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D64" s="18">
+      <c r="D64" s="17">
         <v>4</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F64" s="6">
         <v>6</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I64" s="5" t="b">
         <f>TRUE</f>
@@ -4264,9 +4318,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="45">
+    <row r="65" spans="1:12" ht="45" hidden="1">
       <c r="A65" s="5" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>56</v>
@@ -4274,14 +4328,14 @@
       <c r="C65" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D65" s="18">
+      <c r="D65" s="17">
         <v>6</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="I65" s="5" t="b">
         <f>TRUE</f>
@@ -4297,106 +4351,115 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="30">
-      <c r="A66" s="5" t="s">
+    <row r="66" spans="1:12" s="21" customFormat="1" ht="45">
+      <c r="A66" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C66" s="5" t="s">
+      <c r="B66" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="D66" s="18">
+      <c r="D66" s="23">
         <v>5</v>
       </c>
-      <c r="E66" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>518</v>
-      </c>
-      <c r="H66" s="5" t="s">
+      <c r="E66" s="21" t="s">
+        <v>520</v>
+      </c>
+      <c r="F66" s="27" t="s">
+        <v>515</v>
+      </c>
+      <c r="G66" s="25">
+        <v>45070</v>
+      </c>
+      <c r="H66" s="21" t="s">
         <v>522</v>
       </c>
-      <c r="I66" s="5" t="b">
+      <c r="I66" s="21" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K66" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="L66" s="7" t="s">
+      <c r="K66" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="L66" s="26" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="30">
-      <c r="A67" s="5" t="s">
+    <row r="67" spans="1:12" s="21" customFormat="1" ht="45">
+      <c r="A67" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C67" s="5" t="s">
+      <c r="B67" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C67" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="D67" s="18">
+      <c r="D67" s="23">
         <v>5</v>
       </c>
-      <c r="E67" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>518</v>
-      </c>
-      <c r="H67" s="5" t="s">
+      <c r="E67" s="21" t="s">
+        <v>520</v>
+      </c>
+      <c r="F67" s="27" t="s">
+        <v>515</v>
+      </c>
+      <c r="G67" s="25">
+        <v>45070</v>
+      </c>
+      <c r="H67" s="21" t="s">
         <v>522</v>
       </c>
-      <c r="I67" s="5" t="b">
+      <c r="I67" s="21" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K67" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="L67" s="7" t="s">
+      <c r="K67" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="L67" s="26" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="30">
-      <c r="A68" s="5" t="s">
+    <row r="68" spans="1:12" s="21" customFormat="1" ht="45">
+      <c r="A68" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C68" s="5" t="s">
+      <c r="B68" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C68" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D68" s="18">
+      <c r="D68" s="23">
         <v>5</v>
       </c>
-      <c r="E68" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>518</v>
-      </c>
-      <c r="H68" s="5" t="s">
+      <c r="E68" s="21" t="s">
+        <v>520</v>
+      </c>
+      <c r="F68" s="27" t="s">
+        <v>515</v>
+      </c>
+      <c r="G68" s="25">
+        <v>45070</v>
+      </c>
+      <c r="H68" s="21" t="s">
         <v>522</v>
       </c>
-      <c r="I68" s="5" t="b">
+      <c r="I68" s="21" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K68" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="L68" s="7" t="s">
+      <c r="K68" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="L68" s="26" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="30">
+    <row r="69" spans="1:12" ht="30" hidden="1">
       <c r="A69" s="5" t="s">
         <v>107</v>
       </c>
@@ -4406,11 +4469,11 @@
       <c r="C69" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D69" s="18">
+      <c r="D69" s="17">
         <v>6</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H69" s="5" t="s">
         <v>216</v>
@@ -4426,7 +4489,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="45">
+    <row r="70" spans="1:12" ht="45" hidden="1">
       <c r="A70" s="5" t="s">
         <v>108</v>
       </c>
@@ -4436,11 +4499,11 @@
       <c r="C70" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D70" s="18">
+      <c r="D70" s="17">
         <v>6</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H70" s="5" t="s">
         <v>217</v>
@@ -4456,7 +4519,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="30">
+    <row r="71" spans="1:12" ht="30" hidden="1">
       <c r="A71" s="5" t="s">
         <v>112</v>
       </c>
@@ -4466,11 +4529,11 @@
       <c r="C71" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D71" s="18">
+      <c r="D71" s="17">
         <v>6</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H71" s="5" t="s">
         <v>218</v>
@@ -4486,9 +4549,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="45">
+    <row r="72" spans="1:12" ht="45" hidden="1">
       <c r="A72" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>56</v>
@@ -4496,11 +4559,11 @@
       <c r="C72" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D72" s="18">
+      <c r="D72" s="17">
         <v>6</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H72" s="5" t="s">
         <v>215</v>
@@ -4519,9 +4582,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="45">
+    <row r="73" spans="1:12" ht="45" hidden="1">
       <c r="A73" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>56</v>
@@ -4529,11 +4592,11 @@
       <c r="C73" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D73" s="18">
+      <c r="D73" s="17">
         <v>6</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>215</v>
@@ -4552,7 +4615,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="45">
+    <row r="74" spans="1:12" ht="45" hidden="1">
       <c r="A74" s="5" t="s">
         <v>118</v>
       </c>
@@ -4562,14 +4625,14 @@
       <c r="C74" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D74" s="18">
+      <c r="D74" s="17">
         <v>6</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I74" s="5" t="b">
         <f>FALSE</f>
@@ -4579,10 +4642,10 @@
         <v>117</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="45">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="45" hidden="1">
       <c r="A75" s="5" t="s">
         <v>119</v>
       </c>
@@ -4592,14 +4655,14 @@
       <c r="C75" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D75" s="18">
+      <c r="D75" s="17">
         <v>6</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I75" s="5" t="b">
         <f>FALSE</f>
@@ -4609,10 +4672,10 @@
         <v>117</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="45">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="45" hidden="1">
       <c r="A76" s="5" t="s">
         <v>161</v>
       </c>
@@ -4622,11 +4685,11 @@
       <c r="C76" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D76" s="18">
+      <c r="D76" s="17">
         <v>6</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H76" s="5" t="s">
         <v>214</v>
@@ -4642,7 +4705,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="45">
+    <row r="77" spans="1:12" ht="45" hidden="1">
       <c r="A77" s="5" t="s">
         <v>164</v>
       </c>
@@ -4652,11 +4715,11 @@
       <c r="C77" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D77" s="18">
+      <c r="D77" s="17">
         <v>6</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H77" s="5" t="s">
         <v>214</v>
@@ -4672,105 +4735,111 @@
         <v>151</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="30">
-      <c r="A78" s="5" t="s">
+    <row r="78" spans="1:12" s="21" customFormat="1" ht="45">
+      <c r="A78" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C78" s="5" t="s">
+      <c r="B78" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C78" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="D78" s="18">
+      <c r="D78" s="23">
         <v>7</v>
       </c>
-      <c r="E78" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="F78" s="8" t="s">
+      <c r="E78" s="21" t="s">
+        <v>520</v>
+      </c>
+      <c r="F78" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="G78" s="16"/>
-      <c r="H78" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="I78" s="5" t="b">
+      <c r="G78" s="25">
+        <v>45070</v>
+      </c>
+      <c r="H78" s="21" t="s">
+        <v>523</v>
+      </c>
+      <c r="I78" s="21" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K78" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="L78" s="7" t="s">
+      <c r="K78" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="L78" s="26" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="30">
-      <c r="A79" s="5" t="s">
+    <row r="79" spans="1:12" s="21" customFormat="1" ht="45">
+      <c r="A79" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C79" s="5" t="s">
+      <c r="B79" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C79" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="D79" s="18">
+      <c r="D79" s="23">
         <v>7</v>
       </c>
-      <c r="E79" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="F79" s="8" t="s">
+      <c r="E79" s="21" t="s">
+        <v>520</v>
+      </c>
+      <c r="F79" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="G79" s="16"/>
-      <c r="H79" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="I79" s="5" t="b">
+      <c r="G79" s="25">
+        <v>45070</v>
+      </c>
+      <c r="H79" s="21" t="s">
+        <v>523</v>
+      </c>
+      <c r="I79" s="21" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K79" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="L79" s="7" t="s">
+      <c r="K79" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="L79" s="26" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="30">
-      <c r="A80" s="5" t="s">
+    <row r="80" spans="1:12" s="21" customFormat="1" ht="45">
+      <c r="A80" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C80" s="5" t="s">
+      <c r="B80" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C80" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D80" s="18">
+      <c r="D80" s="23">
         <v>7</v>
       </c>
-      <c r="E80" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="F80" s="8" t="s">
+      <c r="E80" s="21" t="s">
+        <v>520</v>
+      </c>
+      <c r="F80" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="G80" s="16"/>
-      <c r="H80" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="I80" s="5" t="b">
+      <c r="G80" s="25">
+        <v>45070</v>
+      </c>
+      <c r="H80" s="21" t="s">
+        <v>523</v>
+      </c>
+      <c r="I80" s="21" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K80" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="L80" s="7" t="s">
+      <c r="K80" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="L80" s="26" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4784,11 +4853,11 @@
       <c r="C81" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D81" s="18">
+      <c r="D81" s="17">
         <v>7</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H81" s="5" t="s">
         <v>213</v>
@@ -4814,11 +4883,11 @@
       <c r="C82" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D82" s="18">
+      <c r="D82" s="17">
         <v>7</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H82" s="5" t="s">
         <v>213</v>
@@ -4834,37 +4903,39 @@
         <v>130</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="30">
-      <c r="A83" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C83" s="5" t="s">
+    <row r="83" spans="1:12" s="21" customFormat="1" ht="30">
+      <c r="A83" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="B83" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C83" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="D83" s="18">
+      <c r="D83" s="23">
         <v>7</v>
       </c>
-      <c r="E83" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="F83" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="G83" s="16"/>
-      <c r="H83" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="I83" s="5" t="b">
+      <c r="E83" s="21" t="s">
+        <v>520</v>
+      </c>
+      <c r="F83" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="G83" s="25">
+        <v>45070</v>
+      </c>
+      <c r="H83" s="21" t="s">
+        <v>524</v>
+      </c>
+      <c r="I83" s="21" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K83" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="L83" s="7" t="s">
+      <c r="K83" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="L83" s="26" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4876,16 +4947,16 @@
         <v>56</v>
       </c>
       <c r="C84" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D84" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="D84" s="19" t="s">
+      <c r="E84" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H84" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H84" s="5" t="s">
-        <v>247</v>
       </c>
       <c r="I84" s="5" t="b">
         <f>FALSE</f>
@@ -4898,109 +4969,115 @@
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="30">
-      <c r="A85" s="5" t="s">
+    <row r="85" spans="1:12" s="21" customFormat="1" ht="60">
+      <c r="A85" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C85" s="5" t="s">
+      <c r="B85" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C85" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="D85" s="18">
+      <c r="D85" s="23">
         <v>7</v>
       </c>
-      <c r="E85" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="F85" s="8" t="s">
+      <c r="E85" s="21" t="s">
+        <v>520</v>
+      </c>
+      <c r="F85" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="G85" s="16"/>
-      <c r="H85" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="I85" s="5" t="b">
+      <c r="G85" s="25">
+        <v>45070</v>
+      </c>
+      <c r="H85" s="21" t="s">
+        <v>526</v>
+      </c>
+      <c r="I85" s="21" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K85" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="L85" s="7" t="s">
+      <c r="K85" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="L85" s="26" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="45">
-      <c r="A86" s="5" t="s">
+    <row r="86" spans="1:12" s="21" customFormat="1" ht="45">
+      <c r="A86" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C86" s="5" t="s">
+      <c r="B86" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C86" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="D86" s="18">
+      <c r="D86" s="23">
         <v>7</v>
       </c>
-      <c r="E86" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="F86" s="8" t="s">
+      <c r="E86" s="21" t="s">
+        <v>520</v>
+      </c>
+      <c r="F86" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="G86" s="16"/>
-      <c r="H86" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="I86" s="5" t="b">
+      <c r="G86" s="25">
+        <v>45070</v>
+      </c>
+      <c r="H86" s="21" t="s">
+        <v>525</v>
+      </c>
+      <c r="I86" s="21" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K86" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="L86" s="7" t="s">
+      <c r="K86" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="L86" s="26" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="45">
-      <c r="A87" s="5" t="s">
+    <row r="87" spans="1:12" s="21" customFormat="1" ht="45">
+      <c r="A87" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C87" s="5" t="s">
+      <c r="B87" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C87" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="D87" s="18">
+      <c r="D87" s="23">
         <v>7</v>
       </c>
-      <c r="E87" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="F87" s="8" t="s">
+      <c r="E87" s="21" t="s">
+        <v>520</v>
+      </c>
+      <c r="F87" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="G87" s="16"/>
-      <c r="H87" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="I87" s="5" t="b">
+      <c r="G87" s="25">
+        <v>45070</v>
+      </c>
+      <c r="H87" s="21" t="s">
+        <v>525</v>
+      </c>
+      <c r="I87" s="21" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K87" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="L87" s="7" t="s">
+      <c r="K87" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="L87" s="26" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="45">
+    <row r="88" spans="1:12" ht="45" hidden="1">
       <c r="A88" s="5" t="s">
         <v>183</v>
       </c>
@@ -5010,11 +5087,11 @@
       <c r="C88" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D88" s="18">
+      <c r="D88" s="17">
         <v>7</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H88" s="5" t="s">
         <v>212</v>
@@ -5030,9 +5107,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="30">
+    <row r="89" spans="1:12" ht="30" hidden="1">
       <c r="A89" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>56</v>
@@ -5040,16 +5117,16 @@
       <c r="C89" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D89" s="18">
+      <c r="D89" s="17">
         <v>7</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="F89" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="G89" s="16"/>
+        <v>370</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="G89" s="15"/>
       <c r="H89" s="5" t="s">
         <v>211</v>
       </c>
@@ -5064,9 +5141,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="30">
+    <row r="90" spans="1:12" ht="30" hidden="1">
       <c r="A90" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>56</v>
@@ -5074,16 +5151,16 @@
       <c r="C90" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="D90" s="18">
+      <c r="D90" s="17">
         <v>7</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="F90" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="G90" s="16"/>
+        <v>370</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="G90" s="15"/>
       <c r="H90" s="5" t="s">
         <v>211</v>
       </c>
@@ -5098,9 +5175,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="30">
+    <row r="91" spans="1:12" ht="30" hidden="1">
       <c r="A91" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>56</v>
@@ -5108,16 +5185,16 @@
       <c r="C91" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D91" s="18">
+      <c r="D91" s="17">
         <v>7</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="F91" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="G91" s="16"/>
+        <v>370</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="G91" s="15"/>
       <c r="H91" s="5" t="s">
         <v>211</v>
       </c>
@@ -5132,9 +5209,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="45">
+    <row r="92" spans="1:12" ht="45" hidden="1">
       <c r="A92" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>56</v>
@@ -5142,16 +5219,16 @@
       <c r="C92" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="D92" s="18">
+      <c r="D92" s="17">
         <v>7</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="F92" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="G92" s="16"/>
+        <v>370</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="G92" s="15"/>
       <c r="H92" s="5" t="s">
         <v>211</v>
       </c>
@@ -5166,7 +5243,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" hidden="1">
       <c r="A93" s="5" t="s">
         <v>195</v>
       </c>
@@ -5176,11 +5253,11 @@
       <c r="C93" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="D93" s="18">
+      <c r="D93" s="17">
         <v>7</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H93" s="5" t="s">
         <v>210</v>
@@ -5196,7 +5273,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" hidden="1">
       <c r="A94" s="5" t="s">
         <v>196</v>
       </c>
@@ -5206,11 +5283,11 @@
       <c r="C94" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D94" s="18">
+      <c r="D94" s="17">
         <v>7</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H94" s="5" t="s">
         <v>210</v>
@@ -5226,7 +5303,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="30">
+    <row r="95" spans="1:12" ht="30" hidden="1">
       <c r="A95" s="5" t="s">
         <v>197</v>
       </c>
@@ -5236,11 +5313,11 @@
       <c r="C95" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D95" s="18">
+      <c r="D95" s="17">
         <v>7</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H95" s="5" t="s">
         <v>210</v>
@@ -5266,11 +5343,11 @@
       <c r="C96" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D96" s="19" t="s">
+      <c r="D96" s="18" t="s">
         <v>206</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H96" s="5" t="s">
         <v>209</v>
@@ -5296,11 +5373,11 @@
       <c r="C97" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="D97" s="19" t="s">
+      <c r="D97" s="18" t="s">
         <v>206</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H97" s="5" t="s">
         <v>209</v>
@@ -5316,37 +5393,39 @@
         <v>130</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="45">
-      <c r="A98" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C98" s="5" t="s">
+    <row r="98" spans="1:12" s="21" customFormat="1" ht="60">
+      <c r="A98" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="B98" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C98" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="D98" s="19" t="s">
+      <c r="D98" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="E98" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="F98" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="G98" s="16"/>
-      <c r="H98" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I98" s="5" t="b">
+      <c r="E98" s="21" t="s">
+        <v>520</v>
+      </c>
+      <c r="F98" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="G98" s="25">
+        <v>45070</v>
+      </c>
+      <c r="H98" s="21" t="s">
+        <v>526</v>
+      </c>
+      <c r="I98" s="21" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K98" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="L98" s="7" t="s">
+      <c r="K98" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="L98" s="26" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5358,16 +5437,16 @@
         <v>56</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="D99" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="D99" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H99" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H99" s="5" t="s">
-        <v>247</v>
       </c>
       <c r="I99" s="5" t="b">
         <f>FALSE</f>
@@ -5380,24 +5459,24 @@
         <v>130</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="30">
+    <row r="100" spans="1:12" ht="30" hidden="1">
       <c r="A100" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="D100" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="D100" s="18" t="s">
         <v>206</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I100" s="5" t="b">
         <f>FALSE</f>
@@ -5407,27 +5486,27 @@
         <v>117</v>
       </c>
       <c r="L100" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" ht="45">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="45" hidden="1">
       <c r="A101" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D101" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="D101" s="18" t="s">
         <v>206</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I101" s="5" t="b">
         <f>FALSE</f>
@@ -5440,24 +5519,24 @@
         <v>136</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="45">
-      <c r="A102" s="10" t="s">
+    <row r="102" spans="1:12" ht="45" hidden="1">
+      <c r="A102" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C102" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="B102" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C102" s="10" t="s">
+      <c r="D102" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H102" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="D102" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H102" s="5" t="s">
-        <v>227</v>
       </c>
       <c r="I102" s="5" t="b">
         <f>FALSE</f>
@@ -5466,38 +5545,38 @@
       <c r="K102" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="L102" s="12" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12">
+      <c r="L102" s="11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" hidden="1">
       <c r="A103" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B103" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B103" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C103" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D103" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H103" s="5" t="s">
         <v>231</v>
-      </c>
-      <c r="D103" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H103" s="5" t="s">
-        <v>232</v>
       </c>
       <c r="I103" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="L103" s="5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" ht="30">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="30" hidden="1">
       <c r="A104" s="5" t="s">
         <v>184</v>
       </c>
@@ -5505,16 +5584,16 @@
         <v>56</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="D104" s="19" t="s">
-        <v>230</v>
+        <v>238</v>
+      </c>
+      <c r="D104" s="18" t="s">
+        <v>229</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I104" s="5" t="b">
         <f>FALSE</f>
@@ -5524,10 +5603,10 @@
         <v>117</v>
       </c>
       <c r="L104" s="5" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" ht="30">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="30" hidden="1">
       <c r="A105" s="5" t="s">
         <v>185</v>
       </c>
@@ -5535,16 +5614,16 @@
         <v>56</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D105" s="19" t="s">
-        <v>230</v>
+        <v>239</v>
+      </c>
+      <c r="D105" s="18" t="s">
+        <v>229</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I105" s="5" t="b">
         <f>FALSE</f>
@@ -5557,7 +5636,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="30">
+    <row r="106" spans="1:12" ht="30" hidden="1">
       <c r="A106" s="5" t="s">
         <v>186</v>
       </c>
@@ -5565,16 +5644,16 @@
         <v>56</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D106" s="19" t="s">
-        <v>230</v>
+        <v>240</v>
+      </c>
+      <c r="D106" s="18" t="s">
+        <v>229</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I106" s="5" t="b">
         <f>FALSE</f>
@@ -5587,7 +5666,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="45">
+    <row r="107" spans="1:12" ht="45" hidden="1">
       <c r="A107" s="5" t="s">
         <v>187</v>
       </c>
@@ -5595,16 +5674,16 @@
         <v>56</v>
       </c>
       <c r="C107" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D107" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H107" s="5" t="s">
         <v>242</v>
-      </c>
-      <c r="D107" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H107" s="5" t="s">
-        <v>243</v>
       </c>
       <c r="I107" s="5" t="b">
         <f>FALSE</f>
@@ -5614,687 +5693,687 @@
         <v>117</v>
       </c>
       <c r="L107" s="5" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" ht="30">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="30" hidden="1">
       <c r="A108" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B108" t="s">
         <v>56</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D108" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="D108" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H108" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H108" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="I108" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K108" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L108" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" ht="60">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="60" hidden="1">
       <c r="A109" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B109" t="s">
         <v>56</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D109" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="D109" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H109" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H109" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="I109" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K109" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L109" s="5" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" ht="60">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="60" hidden="1">
       <c r="A110" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B110" t="s">
         <v>56</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D110" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="D110" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H110" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H110" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="I110" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K110" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L110" s="5" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" ht="45">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="45" hidden="1">
       <c r="A111" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B111" t="s">
         <v>56</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D111" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="D111" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H111" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H111" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="I111" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K111" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L111" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" ht="45">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="45" hidden="1">
       <c r="A112" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B112" t="s">
         <v>56</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D112" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="D112" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H112" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H112" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="I112" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K112" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L112" s="5" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" ht="45">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="45" hidden="1">
       <c r="A113" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B113" t="s">
         <v>56</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D113" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="D113" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H113" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H113" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="I113" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K113" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L113" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" ht="45">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="45" hidden="1">
       <c r="A114" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B114" t="s">
         <v>56</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D114" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="D114" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H114" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H114" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="I114" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K114" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L114" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" ht="60">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="60" hidden="1">
       <c r="A115" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B115" t="s">
         <v>56</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D115" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="D115" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H115" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H115" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="I115" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K115" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L115" s="5" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" ht="45">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="45" hidden="1">
       <c r="A116" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B116" t="s">
         <v>56</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D116" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="D116" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H116" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H116" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="I116" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K116" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L116" s="5" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" ht="30">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="30" hidden="1">
       <c r="A117" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B117" t="s">
         <v>56</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D117" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="D117" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H117" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H117" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="I117" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K117" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L117" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" ht="45">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="45" hidden="1">
       <c r="A118" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B118" t="s">
         <v>56</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D118" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="D118" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H118" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H118" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="I118" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K118" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L118" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" ht="45">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="45" hidden="1">
       <c r="A119" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B119" t="s">
         <v>56</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D119" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="D119" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H119" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H119" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="I119" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K119" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L119" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" ht="45">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="45" hidden="1">
       <c r="A120" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B120" t="s">
         <v>56</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D120" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="D120" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H120" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H120" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="I120" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K120" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L120" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" ht="45">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="45" hidden="1">
       <c r="A121" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B121" t="s">
         <v>56</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D121" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="D121" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H121" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H121" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="I121" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K121" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L121" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" ht="30">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="30" hidden="1">
       <c r="A122" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B122" t="s">
         <v>56</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D122" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="D122" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H122" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H122" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="I122" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K122" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L122" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" ht="45">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="45" hidden="1">
       <c r="A123" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B123" t="s">
         <v>56</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D123" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="D123" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H123" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H123" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="I123" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K123" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L123" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" hidden="1">
       <c r="A124" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B124" t="s">
         <v>56</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D124" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="D124" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H124" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H124" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="I124" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K124" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L124" s="5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" ht="45">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="45" hidden="1">
       <c r="A125" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B125" t="s">
         <v>56</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D125" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="D125" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H125" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H125" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="I125" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K125" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L125" s="5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" ht="45">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="45" hidden="1">
       <c r="A126" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B126" t="s">
         <v>56</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D126" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="D126" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H126" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H126" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="I126" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K126" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L126" s="5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" hidden="1">
       <c r="A127" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B127" t="s">
         <v>56</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D127" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="D127" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H127" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H127" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="I127" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K127" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L127" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" ht="45">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="45" hidden="1">
       <c r="A128" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B128" t="s">
         <v>56</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D128" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="D128" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H128" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H128" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="I128" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K128" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L128" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" ht="45">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="45" hidden="1">
       <c r="A129" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B129" t="s">
         <v>56</v>
       </c>
       <c r="C129" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D129" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="D129" s="19" t="s">
+      <c r="E129" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H129" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H129" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="I129" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K129" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L129" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" hidden="1">
+      <c r="A130" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C130" s="5" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="130" spans="1:12">
-      <c r="A130" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="D130" s="19" t="s">
-        <v>298</v>
+      <c r="D130" s="18" t="s">
+        <v>297</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I130" s="5" t="b">
         <v>1</v>
@@ -6306,27 +6385,27 @@
         <v>116</v>
       </c>
       <c r="L130" s="5" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" ht="30">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="30" hidden="1">
       <c r="A131" s="5" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="D131" s="19" t="s">
-        <v>298</v>
+        <v>303</v>
+      </c>
+      <c r="D131" s="18" t="s">
+        <v>297</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I131" s="5" t="b">
         <v>1</v>
@@ -6338,27 +6417,27 @@
         <v>116</v>
       </c>
       <c r="L131" s="5" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" hidden="1">
       <c r="A132" s="5" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="D132" s="19" t="s">
-        <v>298</v>
+        <v>304</v>
+      </c>
+      <c r="D132" s="18" t="s">
+        <v>297</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I132" s="5" t="b">
         <v>1</v>
@@ -6370,27 +6449,27 @@
         <v>116</v>
       </c>
       <c r="L132" s="5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" ht="30">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="30" hidden="1">
       <c r="A133" s="5" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C133" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D133" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H133" s="5" t="s">
         <v>306</v>
-      </c>
-      <c r="D133" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="E133" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H133" s="5" t="s">
-        <v>307</v>
       </c>
       <c r="I133" s="5" t="b">
         <v>1</v>
@@ -6402,27 +6481,27 @@
         <v>116</v>
       </c>
       <c r="L133" s="5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="45" hidden="1">
+      <c r="A134" s="5" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" ht="45">
-      <c r="A134" s="5" t="s">
-        <v>310</v>
-      </c>
       <c r="B134" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="D134" s="19" t="s">
-        <v>298</v>
+        <v>323</v>
+      </c>
+      <c r="D134" s="18" t="s">
+        <v>297</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I134" s="5" t="b">
         <v>0</v>
@@ -6434,24 +6513,24 @@
         <v>149</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="45">
+    <row r="135" spans="1:12" ht="45" hidden="1">
       <c r="A135" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="D135" s="19" t="s">
-        <v>298</v>
+        <v>324</v>
+      </c>
+      <c r="D135" s="18" t="s">
+        <v>297</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I135" s="5" t="b">
         <v>0</v>
@@ -6463,24 +6542,24 @@
         <v>149</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="45">
+    <row r="136" spans="1:12" ht="45" hidden="1">
       <c r="A136" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="D136" s="19" t="s">
-        <v>298</v>
+        <v>325</v>
+      </c>
+      <c r="D136" s="18" t="s">
+        <v>297</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I136" s="5" t="b">
         <v>0</v>
@@ -6492,24 +6571,24 @@
         <v>157</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="45">
+    <row r="137" spans="1:12" ht="45" hidden="1">
       <c r="A137" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B137" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="D137" s="19" t="s">
-        <v>298</v>
+        <v>326</v>
+      </c>
+      <c r="D137" s="18" t="s">
+        <v>297</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I137" s="5" t="b">
         <v>0</v>
@@ -6521,24 +6600,24 @@
         <v>157</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="45">
+    <row r="138" spans="1:12" ht="45" hidden="1">
       <c r="A138" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="D138" s="19" t="s">
-        <v>298</v>
+        <v>327</v>
+      </c>
+      <c r="D138" s="18" t="s">
+        <v>297</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I138" s="5" t="b">
         <v>0</v>
@@ -6550,257 +6629,257 @@
         <v>158</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="45">
+    <row r="139" spans="1:12" ht="45" hidden="1">
       <c r="A139" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="D139" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H139" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="I139" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K139" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L139" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="30" hidden="1">
+      <c r="A140" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="B139" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C139" s="5" t="s">
+      <c r="B140" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C140" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="D139" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="E139" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H139" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="I139" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K139" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="L139" s="5" t="s">
+      <c r="D140" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H140" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="I140" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K140" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L140" s="5" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="30">
-      <c r="A140" s="5" t="s">
+    <row r="141" spans="1:12" ht="45" hidden="1">
+      <c r="A141" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="B140" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C140" s="5" t="s">
+      <c r="B141" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C141" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="D140" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="E140" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H140" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="I140" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K140" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="L140" s="5" t="s">
+      <c r="D141" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H141" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="I141" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K141" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L141" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="45" hidden="1">
+      <c r="A142" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D142" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H142" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="I142" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K142" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L142" s="5" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="45">
-      <c r="A141" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="D141" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="E141" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H141" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="I141" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K141" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="L141" s="5" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" ht="45">
-      <c r="A142" s="5" t="s">
+    <row r="143" spans="1:12" ht="45" hidden="1">
+      <c r="A143" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="B142" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C142" s="5" t="s">
+      <c r="B143" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C143" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="D142" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="E142" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H142" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="I142" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K142" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="L142" s="5" t="s">
+      <c r="D143" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H143" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="I143" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K143" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L143" s="5" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="45">
-      <c r="A143" s="5" t="s">
+    <row r="144" spans="1:12" ht="45" hidden="1">
+      <c r="A144" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B143" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C143" s="5" t="s">
+      <c r="B144" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C144" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="D143" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="E143" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H143" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="I143" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K143" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="L143" s="5" t="s">
+      <c r="D144" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H144" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="I144" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K144" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L144" s="5" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="45">
-      <c r="A144" s="5" t="s">
+    <row r="145" spans="1:12" ht="30" hidden="1">
+      <c r="A145" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="B144" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C144" s="5" t="s">
+      <c r="B145" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C145" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D144" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="E144" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H144" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="I144" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K144" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="L144" s="5" t="s">
+      <c r="D145" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H145" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="I145" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K145" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L145" s="5" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="30">
-      <c r="A145" s="5" t="s">
+    <row r="146" spans="1:12" ht="45" hidden="1">
+      <c r="A146" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="B145" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C145" s="5" t="s">
+      <c r="B146" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C146" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D145" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="E145" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H145" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="I145" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K145" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="L145" s="5" t="s">
+      <c r="D146" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H146" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="I146" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K146" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L146" s="5" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="45">
-      <c r="A146" s="5" t="s">
+    <row r="147" spans="1:12" ht="45" hidden="1">
+      <c r="A147" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="B146" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C146" s="5" t="s">
+      <c r="B147" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C147" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D146" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="E146" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H146" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="I146" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K146" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="L146" s="5" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" ht="45">
-      <c r="A147" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C147" s="5" t="s">
+      <c r="D147" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H147" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="D147" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="E147" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H147" s="5" t="s">
-        <v>338</v>
-      </c>
       <c r="I147" s="5" t="b">
         <v>0</v>
       </c>
@@ -6808,27 +6887,27 @@
         <v>117</v>
       </c>
       <c r="L147" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="148" spans="1:12" ht="30">
       <c r="A148" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="D148" s="19" t="s">
-        <v>298</v>
+        <v>357</v>
+      </c>
+      <c r="D148" s="18" t="s">
+        <v>297</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I148" s="5" t="b">
         <v>0</v>
@@ -6842,22 +6921,22 @@
     </row>
     <row r="149" spans="1:12" ht="30">
       <c r="A149" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="D149" s="19" t="s">
-        <v>298</v>
+        <v>358</v>
+      </c>
+      <c r="D149" s="18" t="s">
+        <v>297</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I149" s="5" t="b">
         <v>0</v>
@@ -6871,22 +6950,22 @@
     </row>
     <row r="150" spans="1:12" ht="30">
       <c r="A150" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C150" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="D150" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H150" s="5" t="s">
         <v>360</v>
-      </c>
-      <c r="D150" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="E150" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H150" s="5" t="s">
-        <v>361</v>
       </c>
       <c r="I150" s="5" t="b">
         <v>0</v>
@@ -6900,22 +6979,22 @@
     </row>
     <row r="151" spans="1:12" ht="30">
       <c r="A151" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="D151" s="19" t="s">
-        <v>298</v>
+        <v>364</v>
+      </c>
+      <c r="D151" s="18" t="s">
+        <v>297</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I151" s="5" t="b">
         <v>0</v>
@@ -6929,22 +7008,22 @@
     </row>
     <row r="152" spans="1:12" ht="45">
       <c r="A152" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="D152" s="19" t="s">
-        <v>298</v>
+        <v>365</v>
+      </c>
+      <c r="D152" s="18" t="s">
+        <v>297</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I152" s="5" t="b">
         <v>0</v>
@@ -6958,22 +7037,22 @@
     </row>
     <row r="153" spans="1:12" ht="45">
       <c r="A153" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C153" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="D153" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H153" s="5" t="s">
         <v>367</v>
-      </c>
-      <c r="D153" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="E153" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H153" s="5" t="s">
-        <v>368</v>
       </c>
       <c r="I153" s="5" t="b">
         <v>0</v>
@@ -6985,111 +7064,111 @@
         <v>130</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="45">
+    <row r="154" spans="1:12" ht="45" hidden="1">
       <c r="A154" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="D154" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H154" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="I154" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K154" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L154" s="5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" ht="45" hidden="1">
+      <c r="A155" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="D155" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H155" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="I155" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K155" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L155" s="5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" ht="45" hidden="1">
+      <c r="A156" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="B154" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C154" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="D154" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="E154" s="5" t="s">
+      <c r="B156" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="D156" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H156" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="H154" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="I154" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K154" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="L154" s="5" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" ht="45">
-      <c r="A155" s="5" t="s">
+      <c r="I156" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K156" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L156" s="5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" ht="30" hidden="1">
+      <c r="A157" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C157" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="B155" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="D155" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="E155" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H155" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="I155" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K155" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="L155" s="5" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" ht="45">
-      <c r="A156" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="D156" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="E156" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H156" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="I156" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K156" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="L156" s="5" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" ht="30">
-      <c r="A157" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="D157" s="19" t="s">
-        <v>298</v>
+      <c r="D157" s="18" t="s">
+        <v>297</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I157" s="5" t="b">
         <v>0</v>
@@ -7098,27 +7177,27 @@
         <v>116</v>
       </c>
       <c r="L157" s="5" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" ht="30">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" ht="30" hidden="1">
       <c r="A158" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="D158" s="19" t="s">
-        <v>298</v>
+        <v>383</v>
+      </c>
+      <c r="D158" s="18" t="s">
+        <v>297</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I158" s="5" t="b">
         <v>0</v>
@@ -7127,27 +7206,27 @@
         <v>116</v>
       </c>
       <c r="L158" s="5" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" ht="30">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" ht="30" hidden="1">
       <c r="A159" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="D159" s="19" t="s">
-        <v>298</v>
+        <v>384</v>
+      </c>
+      <c r="D159" s="18" t="s">
+        <v>297</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I159" s="5" t="b">
         <v>0</v>
@@ -7156,27 +7235,27 @@
         <v>116</v>
       </c>
       <c r="L159" s="5" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" ht="30">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" ht="30" hidden="1">
       <c r="A160" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="D160" s="19" t="s">
-        <v>298</v>
+        <v>385</v>
+      </c>
+      <c r="D160" s="18" t="s">
+        <v>297</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I160" s="5" t="b">
         <v>0</v>
@@ -7185,27 +7264,27 @@
         <v>116</v>
       </c>
       <c r="L160" s="5" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" hidden="1">
       <c r="A161" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="D161" s="19" t="s">
-        <v>298</v>
+        <v>386</v>
+      </c>
+      <c r="D161" s="18" t="s">
+        <v>297</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I161" s="5" t="b">
         <v>0</v>
@@ -7214,27 +7293,27 @@
         <v>116</v>
       </c>
       <c r="L161" s="5" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" ht="30">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" ht="30" hidden="1">
       <c r="A162" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="D162" s="19" t="s">
-        <v>298</v>
+        <v>387</v>
+      </c>
+      <c r="D162" s="18" t="s">
+        <v>297</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I162" s="5" t="b">
         <v>0</v>
@@ -7243,27 +7322,27 @@
         <v>116</v>
       </c>
       <c r="L162" s="5" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" ht="30">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" ht="30" hidden="1">
       <c r="A163" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="D163" s="19" t="s">
-        <v>298</v>
+        <v>388</v>
+      </c>
+      <c r="D163" s="18" t="s">
+        <v>297</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I163" s="5" t="b">
         <v>0</v>
@@ -7272,27 +7351,27 @@
         <v>116</v>
       </c>
       <c r="L163" s="5" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" ht="30">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" ht="30" hidden="1">
       <c r="A164" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="D164" s="19" t="s">
-        <v>298</v>
+        <v>389</v>
+      </c>
+      <c r="D164" s="18" t="s">
+        <v>297</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I164" s="5" t="b">
         <v>0</v>
@@ -7301,27 +7380,27 @@
         <v>116</v>
       </c>
       <c r="L164" s="5" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" ht="30">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" ht="30" hidden="1">
       <c r="A165" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="D165" s="19" t="s">
-        <v>298</v>
+        <v>390</v>
+      </c>
+      <c r="D165" s="18" t="s">
+        <v>297</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H165" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I165" s="5" t="b">
         <v>0</v>
@@ -7330,27 +7409,27 @@
         <v>116</v>
       </c>
       <c r="L165" s="5" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" ht="30">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" ht="30" hidden="1">
       <c r="A166" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="D166" s="19" t="s">
-        <v>298</v>
+        <v>391</v>
+      </c>
+      <c r="D166" s="18" t="s">
+        <v>297</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I166" s="5" t="b">
         <v>0</v>
@@ -7359,27 +7438,27 @@
         <v>116</v>
       </c>
       <c r="L166" s="5" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" hidden="1">
       <c r="A167" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="D167" s="19" t="s">
-        <v>298</v>
+        <v>392</v>
+      </c>
+      <c r="D167" s="18" t="s">
+        <v>297</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I167" s="5" t="b">
         <v>0</v>
@@ -7388,27 +7467,27 @@
         <v>116</v>
       </c>
       <c r="L167" s="5" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" hidden="1">
       <c r="A168" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="D168" s="19" t="s">
-        <v>298</v>
+        <v>393</v>
+      </c>
+      <c r="D168" s="18" t="s">
+        <v>297</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H168" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I168" s="5" t="b">
         <v>0</v>
@@ -7417,27 +7496,27 @@
         <v>116</v>
       </c>
       <c r="L168" s="5" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" ht="30">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" ht="30" hidden="1">
       <c r="A169" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="D169" s="19" t="s">
-        <v>298</v>
+        <v>394</v>
+      </c>
+      <c r="D169" s="18" t="s">
+        <v>297</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H169" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I169" s="5" t="b">
         <v>0</v>
@@ -7446,27 +7525,27 @@
         <v>116</v>
       </c>
       <c r="L169" s="5" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" ht="30">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" ht="30" hidden="1">
       <c r="A170" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="D170" s="19" t="s">
-        <v>298</v>
+        <v>395</v>
+      </c>
+      <c r="D170" s="18" t="s">
+        <v>297</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H170" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I170" s="5" t="b">
         <v>0</v>
@@ -7475,27 +7554,27 @@
         <v>116</v>
       </c>
       <c r="L170" s="5" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" hidden="1">
       <c r="A171" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="D171" s="19" t="s">
-        <v>298</v>
+        <v>396</v>
+      </c>
+      <c r="D171" s="18" t="s">
+        <v>297</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H171" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I171" s="5" t="b">
         <v>0</v>
@@ -7504,27 +7583,27 @@
         <v>116</v>
       </c>
       <c r="L171" s="5" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" ht="30">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" ht="30" hidden="1">
       <c r="A172" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C172" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="D172" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H172" s="5" t="s">
         <v>399</v>
-      </c>
-      <c r="D172" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="E172" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H172" s="5" t="s">
-        <v>401</v>
       </c>
       <c r="I172" s="5" t="b">
         <v>0</v>
@@ -7533,27 +7612,27 @@
         <v>116</v>
       </c>
       <c r="L172" s="5" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" ht="30">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" ht="30" hidden="1">
       <c r="A173" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="D173" s="19" t="s">
-        <v>298</v>
+        <v>398</v>
+      </c>
+      <c r="D173" s="18" t="s">
+        <v>297</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H173" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I173" s="5" t="b">
         <v>0</v>
@@ -7562,27 +7641,27 @@
         <v>116</v>
       </c>
       <c r="L173" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="174" spans="1:12" ht="30">
       <c r="A174" s="5" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="D174" s="19" t="s">
-        <v>447</v>
+        <v>445</v>
+      </c>
+      <c r="D174" s="18" t="s">
+        <v>444</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H174" s="5" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="I174" s="5" t="b">
         <v>0</v>
@@ -7596,22 +7675,22 @@
     </row>
     <row r="175" spans="1:12" ht="30">
       <c r="A175" s="5" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="D175" s="19" t="s">
-        <v>447</v>
+        <v>446</v>
+      </c>
+      <c r="D175" s="18" t="s">
+        <v>444</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H175" s="5" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="I175" s="5" t="b">
         <v>0</v>
@@ -7625,22 +7704,22 @@
     </row>
     <row r="176" spans="1:12" ht="30">
       <c r="A176" s="5" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="D176" s="19" t="s">
         <v>447</v>
       </c>
+      <c r="D176" s="18" t="s">
+        <v>444</v>
+      </c>
       <c r="E176" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H176" s="5" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="I176" s="5" t="b">
         <v>0</v>
@@ -7654,22 +7733,22 @@
     </row>
     <row r="177" spans="1:12" ht="30">
       <c r="A177" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="D177" s="18" t="s">
         <v>444</v>
       </c>
-      <c r="B177" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C177" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="D177" s="19" t="s">
-        <v>447</v>
-      </c>
       <c r="E177" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H177" s="5" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="I177" s="5" t="b">
         <v>0</v>
@@ -7683,22 +7762,22 @@
     </row>
     <row r="178" spans="1:12" ht="45">
       <c r="A178" s="5" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C178" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="D178" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H178" s="5" t="s">
         <v>452</v>
-      </c>
-      <c r="D178" s="19" t="s">
-        <v>447</v>
-      </c>
-      <c r="E178" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H178" s="5" t="s">
-        <v>455</v>
       </c>
       <c r="I178" s="5" t="b">
         <v>0</v>
@@ -7712,22 +7791,22 @@
     </row>
     <row r="179" spans="1:12" ht="45">
       <c r="A179" s="5" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="D179" s="19" t="s">
-        <v>447</v>
+        <v>450</v>
+      </c>
+      <c r="D179" s="18" t="s">
+        <v>444</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H179" s="5" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="I179" s="5" t="b">
         <v>0</v>
@@ -7739,198 +7818,198 @@
         <v>130</v>
       </c>
     </row>
-    <row r="180" spans="1:12">
+    <row r="180" spans="1:12" hidden="1">
       <c r="A180" s="5" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C180" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="D180" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H180" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="D180" s="19" t="s">
-        <v>447</v>
-      </c>
-      <c r="E180" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H180" s="5" t="s">
+      <c r="I180" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K180" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="L180" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" ht="30" hidden="1">
+      <c r="A181" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="D181" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H181" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="I181" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K181" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="L181" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" ht="30" hidden="1">
+      <c r="A182" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="D182" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H182" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="I182" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K182" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="L182" s="20" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" ht="30" hidden="1">
+      <c r="A183" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C183" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="I180" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K180" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="L180" s="5" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" ht="30">
-      <c r="A181" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="B181" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C181" s="5" t="s">
+      <c r="D183" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="E183" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H183" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="I183" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K183" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="L183" s="19" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" ht="30" hidden="1">
+      <c r="A184" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C184" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="D181" s="19" t="s">
-        <v>447</v>
-      </c>
-      <c r="E181" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H181" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="I181" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K181" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="L181" s="5" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" ht="30">
-      <c r="A182" s="5" t="s">
+      <c r="D184" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H184" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="I184" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K184" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="L184" s="19" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" ht="30" hidden="1">
+      <c r="A185" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="B182" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C182" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="D182" s="19" t="s">
-        <v>447</v>
-      </c>
-      <c r="E182" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H182" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="I182" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K182" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="L182" s="21" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" ht="30">
-      <c r="A183" s="5" t="s">
+      <c r="B185" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C185" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="B183" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C183" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="D183" s="19" t="s">
-        <v>447</v>
-      </c>
-      <c r="E183" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H183" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="I183" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K183" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="L183" s="20" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12" ht="30">
-      <c r="A184" s="5" t="s">
+      <c r="D185" s="17" t="s">
         <v>472</v>
       </c>
-      <c r="B184" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C184" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="D184" s="19" t="s">
-        <v>447</v>
-      </c>
-      <c r="E184" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H184" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="I184" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K184" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="L184" s="20" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" ht="30">
-      <c r="A185" s="5" t="s">
+      <c r="E185" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H185" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="I185" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K185" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L185" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="B185" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C185" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="D185" s="18" t="s">
-        <v>475</v>
-      </c>
-      <c r="E185" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H185" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="I185" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K185" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="L185" s="5" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" ht="45">
+    </row>
+    <row r="186" spans="1:12" ht="45" hidden="1">
       <c r="A186" s="5" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="D186" s="18" t="s">
-        <v>475</v>
+        <v>506</v>
+      </c>
+      <c r="D186" s="17" t="s">
+        <v>472</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H186" s="5" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I186" s="5" t="b">
         <v>0</v>
@@ -7942,24 +8021,24 @@
         <v>130</v>
       </c>
     </row>
-    <row r="187" spans="1:12">
+    <row r="187" spans="1:12" hidden="1">
       <c r="A187" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="D187" s="18" t="s">
-        <v>475</v>
+        <v>509</v>
+      </c>
+      <c r="D187" s="17" t="s">
+        <v>472</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H187" s="5" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="I187" s="5" t="b">
         <f>TRUE</f>
@@ -7975,24 +8054,24 @@
         <v>130</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="30">
+    <row r="188" spans="1:12" ht="30" hidden="1">
       <c r="A188" s="5" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="D188" s="18" t="s">
-        <v>518</v>
+        <v>510</v>
+      </c>
+      <c r="D188" s="17" t="s">
+        <v>515</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H188" s="5" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="I188" s="5" t="b">
         <v>1</v>
@@ -8004,27 +8083,27 @@
         <v>117</v>
       </c>
       <c r="L188" s="5" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" ht="30" hidden="1">
+      <c r="A189" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="D189" s="17" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="189" spans="1:12" ht="30">
-      <c r="A189" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="B189" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C189" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="D189" s="18" t="s">
-        <v>518</v>
-      </c>
       <c r="E189" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H189" s="5" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="I189" s="5" t="b">
         <v>1</v>
@@ -8036,27 +8115,27 @@
         <v>117</v>
       </c>
       <c r="L189" s="5" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" ht="30" hidden="1">
+      <c r="A190" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="D190" s="17" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="190" spans="1:12" ht="30">
-      <c r="A190" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="B190" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C190" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="D190" s="18" t="s">
-        <v>518</v>
-      </c>
       <c r="E190" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H190" s="5" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="I190" s="5" t="b">
         <v>1</v>
@@ -8068,11 +8147,48 @@
         <v>117</v>
       </c>
       <c r="L190" s="5" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L187" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L190" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="XRechnung CII Invoice V1.1"/>
+        <filter val="XRechnung CII Invoice V1.2"/>
+        <filter val="XRechnung CII Invoice V1.3"/>
+        <filter val="XRechnung CII Invoice V1.3 Extension"/>
+        <filter val="XRechnung CII Invoice V2.0"/>
+        <filter val="XRechnung CII Invoice V2.0 (invalid)"/>
+        <filter val="XRechnung CII Invoice V2.0 Extension"/>
+        <filter val="XRechnung CII Invoice V2.0 Extension (invalid)"/>
+        <filter val="XRechnung CII Invoice V2.1"/>
+        <filter val="XRechnung CII Invoice V2.1 Extension"/>
+        <filter val="XRechnung CII Invoice V2.2"/>
+        <filter val="XRechnung CII Invoice V2.2 Extension"/>
+        <filter val="XRechnung UBL CreditNote V1.1"/>
+        <filter val="XRechnung UBL CreditNote V1.2"/>
+        <filter val="XRechnung UBL CreditNote V1.3"/>
+        <filter val="XRechnung UBL CreditNote V1.3 Extension"/>
+        <filter val="XRechnung UBL CreditNote V2.0"/>
+        <filter val="XRechnung UBL CreditNote V2.0 Extension"/>
+        <filter val="XRechnung UBL CreditNote V2.1"/>
+        <filter val="XRechnung UBL CreditNote V2.1 Extension"/>
+        <filter val="XRechnung UBL CreditNote V2.2"/>
+        <filter val="XRechnung UBL CreditNote V2.2 Extension"/>
+        <filter val="XRechnung UBL Invoice V1.1"/>
+        <filter val="XRechnung UBL Invoice V1.2"/>
+        <filter val="XRechnung UBL Invoice V1.3"/>
+        <filter val="XRechnung UBL Invoice V1.3 Extension"/>
+        <filter val="XRechnung UBL Invoice V2.0"/>
+        <filter val="XRechnung UBL Invoice V2.0 Extension"/>
+        <filter val="XRechnung UBL Invoice V2.1"/>
+        <filter val="XRechnung UBL Invoice V2.1 Extension"/>
+        <filter val="XRechnung UBL Invoice V2.2"/>
+        <filter val="XRechnung UBL Invoice V2.2 Extension"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/work-in-progress/Peppol Code Lists - Document types v8.4.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v8.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7C6942-8418-46B2-A49A-CE2DB5C12275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5AED9D-AA4E-426F-8963-70E9FA299006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23565" yWindow="1065" windowWidth="27135" windowHeight="19170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="542">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -1651,6 +1651,51 @@
     <t>Typo in syntax version
 TICC-135
 TICC-245</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:Invoice-2::Invoice##urn:cen.eu:en16931:2017#compliant#urn:xoev-de:kosit:standard:xrechnung_2.3::2.1</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:CreditNote-2::CreditNote##urn:cen.eu:en16931:2017#compliant#urn:xoev-de:kosit:standard:xrechnung_2.3::2.1</t>
+  </si>
+  <si>
+    <t>urn:un:unece:uncefact:data:standard:CrossIndustryInvoice:100::CrossIndustryInvoice##urn:cen.eu:en16931:2017#compliant#urn:xoev-de:kosit:standard:xrechnung_2.3::D16B</t>
+  </si>
+  <si>
+    <t>8.4</t>
+  </si>
+  <si>
+    <t>TICC-243</t>
+  </si>
+  <si>
+    <t>XRechnung UBL Invoice V2.3</t>
+  </si>
+  <si>
+    <t>XRechnung UBL CreditNote V2.3</t>
+  </si>
+  <si>
+    <t>XRechnung CII Invoice V2.3</t>
+  </si>
+  <si>
+    <t>XRechnung UBL Invoice V2.3 Extension</t>
+  </si>
+  <si>
+    <t>XRechnung UBL CreditNote V2.3 Extension</t>
+  </si>
+  <si>
+    <t>XRechnung CII Invoice V2.3 Extension</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:CreditNote-2::CreditNote##urn:cen.eu:en16931:2017#compliant#urn:xoev-de:kosit:standard:xrechnung_2.3#conformant#urn:xoev-de:kosit:extension:xrechnung_2.3::2.1</t>
+  </si>
+  <si>
+    <t>urn:un:unece:uncefact:data:standard:CrossIndustryInvoice:100::CrossIndustryInvoice##urn:cen.eu:en16931:2017#compliant#urn:xoev-de:kosit:standard:xrechnung_2.3#conformant#urn:xoev-de:kosit:extension:xrechnung_2.3::D16B</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:Invoice-2::Invoice##urn:cen.eu:en16931:2017#compliant#urn:xoev-de:kosit:standard:xrechnung_2.3#conformant#urn:xoev-de:kosit:extension:xrechnung_2.3::2.1</t>
+  </si>
+  <si>
+    <t>TICC-244</t>
   </si>
 </sst>
 </file>
@@ -2254,12 +2299,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45987FB-91F4-488D-A9D3-2F3FAED3E07C}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:L190"/>
+  <dimension ref="A1:L196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H85" sqref="H85"/>
+      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A197" sqref="A197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2317,7 +2361,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="45" hidden="1">
+    <row r="2" spans="1:12" ht="45">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -2350,7 +2394,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="45" hidden="1">
+    <row r="3" spans="1:12" ht="45">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -2383,7 +2427,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="45" hidden="1">
+    <row r="4" spans="1:12" ht="45">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -2416,7 +2460,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="45" hidden="1">
+    <row r="5" spans="1:12" ht="45">
       <c r="A5" s="5" t="s">
         <v>100</v>
       </c>
@@ -2449,7 +2493,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="45" hidden="1">
+    <row r="6" spans="1:12" ht="45">
       <c r="A6" s="5" t="s">
         <v>103</v>
       </c>
@@ -2482,7 +2526,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="45" hidden="1">
+    <row r="7" spans="1:12" ht="45">
       <c r="A7" s="5" t="s">
         <v>103</v>
       </c>
@@ -2515,7 +2559,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="45" hidden="1">
+    <row r="8" spans="1:12" ht="45">
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
@@ -2548,7 +2592,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30" hidden="1">
+    <row r="9" spans="1:12" ht="30">
       <c r="A9" s="4" t="s">
         <v>28</v>
       </c>
@@ -2581,7 +2625,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="45" hidden="1">
+    <row r="10" spans="1:12" ht="45">
       <c r="A10" s="4" t="s">
         <v>353</v>
       </c>
@@ -2617,7 +2661,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="45" hidden="1">
+    <row r="11" spans="1:12" ht="45">
       <c r="A11" s="4" t="s">
         <v>29</v>
       </c>
@@ -2650,7 +2694,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30" hidden="1">
+    <row r="12" spans="1:12" ht="30">
       <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
@@ -2683,7 +2727,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="45" hidden="1">
+    <row r="13" spans="1:12" ht="45">
       <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
@@ -2716,7 +2760,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="30" hidden="1">
+    <row r="14" spans="1:12" ht="30">
       <c r="A14" s="4" t="s">
         <v>101</v>
       </c>
@@ -2749,7 +2793,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="45" hidden="1">
+    <row r="15" spans="1:12" ht="45">
       <c r="A15" s="4" t="s">
         <v>102</v>
       </c>
@@ -2782,7 +2826,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="30" hidden="1">
+    <row r="16" spans="1:12" ht="30">
       <c r="A16" s="4" t="s">
         <v>101</v>
       </c>
@@ -2815,7 +2859,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="45" hidden="1">
+    <row r="17" spans="1:12" ht="45">
       <c r="A17" s="4" t="s">
         <v>91</v>
       </c>
@@ -2848,7 +2892,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="45" hidden="1">
+    <row r="18" spans="1:12" ht="45">
       <c r="A18" s="4" t="s">
         <v>92</v>
       </c>
@@ -2881,7 +2925,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="30" hidden="1">
+    <row r="19" spans="1:12" ht="30">
       <c r="A19" s="5" t="s">
         <v>96</v>
       </c>
@@ -2914,7 +2958,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="45" hidden="1">
+    <row r="20" spans="1:12" ht="45">
       <c r="A20" s="5" t="s">
         <v>97</v>
       </c>
@@ -2947,7 +2991,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="45" hidden="1">
+    <row r="21" spans="1:12" ht="45">
       <c r="A21" s="5" t="s">
         <v>97</v>
       </c>
@@ -2980,7 +3024,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="30" hidden="1">
+    <row r="22" spans="1:12" ht="30">
       <c r="A22" s="5" t="s">
         <v>98</v>
       </c>
@@ -3013,7 +3057,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="45" hidden="1">
+    <row r="23" spans="1:12" ht="45">
       <c r="A23" s="5" t="s">
         <v>99</v>
       </c>
@@ -3046,7 +3090,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="30" hidden="1">
+    <row r="24" spans="1:12" ht="30">
       <c r="A24" s="5" t="s">
         <v>98</v>
       </c>
@@ -3079,7 +3123,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="45" hidden="1">
+    <row r="25" spans="1:12" ht="45">
       <c r="A25" s="5" t="s">
         <v>34</v>
       </c>
@@ -3109,7 +3153,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="45" hidden="1">
+    <row r="26" spans="1:12" ht="45">
       <c r="A26" s="5" t="s">
         <v>35</v>
       </c>
@@ -3136,7 +3180,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="45" hidden="1">
+    <row r="27" spans="1:12" ht="45">
       <c r="A27" s="5" t="s">
         <v>94</v>
       </c>
@@ -3169,7 +3213,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="45" hidden="1">
+    <row r="28" spans="1:12" ht="45">
       <c r="A28" s="5" t="s">
         <v>350</v>
       </c>
@@ -3205,7 +3249,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="45" hidden="1">
+    <row r="29" spans="1:12" ht="45">
       <c r="A29" s="5" t="s">
         <v>95</v>
       </c>
@@ -3238,7 +3282,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="45" hidden="1">
+    <row r="30" spans="1:12" ht="45">
       <c r="A30" s="5" t="s">
         <v>39</v>
       </c>
@@ -3271,7 +3315,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="45" hidden="1">
+    <row r="31" spans="1:12" ht="45">
       <c r="A31" s="5" t="s">
         <v>40</v>
       </c>
@@ -3304,7 +3348,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="30" hidden="1">
+    <row r="32" spans="1:12" ht="30">
       <c r="A32" s="5" t="s">
         <v>485</v>
       </c>
@@ -3334,7 +3378,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="30" hidden="1">
+    <row r="33" spans="1:12" ht="30">
       <c r="A33" s="5" t="s">
         <v>486</v>
       </c>
@@ -3364,7 +3408,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="45" hidden="1">
+    <row r="34" spans="1:12" ht="45">
       <c r="A34" s="5" t="s">
         <v>93</v>
       </c>
@@ -3391,7 +3435,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="45" hidden="1">
+    <row r="35" spans="1:12" ht="45">
       <c r="A35" s="5" t="s">
         <v>347</v>
       </c>
@@ -3424,7 +3468,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="45" hidden="1">
+    <row r="36" spans="1:12" ht="45">
       <c r="A36" s="5" t="s">
         <v>125</v>
       </c>
@@ -3454,7 +3498,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="30" hidden="1">
+    <row r="37" spans="1:12" ht="30">
       <c r="A37" s="5" t="s">
         <v>487</v>
       </c>
@@ -3484,7 +3528,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="45" hidden="1">
+    <row r="38" spans="1:12" ht="45">
       <c r="A38" s="5" t="s">
         <v>503</v>
       </c>
@@ -3514,7 +3558,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="45" hidden="1">
+    <row r="39" spans="1:12" ht="45">
       <c r="A39" s="5" t="s">
         <v>502</v>
       </c>
@@ -3544,7 +3588,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="45" hidden="1">
+    <row r="40" spans="1:12" ht="45">
       <c r="A40" s="5" t="s">
         <v>501</v>
       </c>
@@ -3574,7 +3618,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="45" hidden="1">
+    <row r="41" spans="1:12" ht="45">
       <c r="A41" s="5" t="s">
         <v>500</v>
       </c>
@@ -3604,7 +3648,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="45" hidden="1">
+    <row r="42" spans="1:12" ht="45">
       <c r="A42" s="5" t="s">
         <v>499</v>
       </c>
@@ -3634,7 +3678,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="45" hidden="1">
+    <row r="43" spans="1:12" ht="45">
       <c r="A43" s="5" t="s">
         <v>498</v>
       </c>
@@ -3772,7 +3816,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1">
+    <row r="47" spans="1:12">
       <c r="A47" s="5" t="s">
         <v>61</v>
       </c>
@@ -3802,7 +3846,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1">
+    <row r="48" spans="1:12">
       <c r="A48" s="5" t="s">
         <v>62</v>
       </c>
@@ -3832,7 +3876,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="30" hidden="1">
+    <row r="49" spans="1:12" ht="30">
       <c r="A49" s="5" t="s">
         <v>63</v>
       </c>
@@ -3862,7 +3906,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="30" hidden="1">
+    <row r="50" spans="1:12" ht="30">
       <c r="A50" s="5" t="s">
         <v>64</v>
       </c>
@@ -3892,7 +3936,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="30" hidden="1">
+    <row r="51" spans="1:12" ht="30">
       <c r="A51" s="5" t="s">
         <v>475</v>
       </c>
@@ -3925,7 +3969,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="30" hidden="1">
+    <row r="52" spans="1:12" ht="30">
       <c r="A52" s="5" t="s">
         <v>476</v>
       </c>
@@ -3955,7 +3999,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="30" hidden="1">
+    <row r="53" spans="1:12" ht="30">
       <c r="A53" s="5" t="s">
         <v>477</v>
       </c>
@@ -3985,7 +4029,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="45" hidden="1">
+    <row r="54" spans="1:12" ht="45">
       <c r="A54" s="5" t="s">
         <v>478</v>
       </c>
@@ -4018,7 +4062,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="30" hidden="1">
+    <row r="55" spans="1:12" ht="30">
       <c r="A55" s="5" t="s">
         <v>479</v>
       </c>
@@ -4048,7 +4092,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="30" hidden="1">
+    <row r="56" spans="1:12" ht="30">
       <c r="A56" s="5" t="s">
         <v>481</v>
       </c>
@@ -4078,7 +4122,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="30" hidden="1">
+    <row r="57" spans="1:12" ht="30">
       <c r="A57" s="5" t="s">
         <v>480</v>
       </c>
@@ -4108,7 +4152,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="30" hidden="1">
+    <row r="58" spans="1:12" ht="30">
       <c r="A58" s="5" t="s">
         <v>482</v>
       </c>
@@ -4138,7 +4182,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="30" hidden="1">
+    <row r="59" spans="1:12" ht="30">
       <c r="A59" s="5" t="s">
         <v>483</v>
       </c>
@@ -4168,7 +4212,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="30" hidden="1">
+    <row r="60" spans="1:12" ht="30">
       <c r="A60" s="5" t="s">
         <v>484</v>
       </c>
@@ -4198,7 +4242,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="30" hidden="1">
+    <row r="61" spans="1:12" ht="30">
       <c r="A61" s="5" t="s">
         <v>79</v>
       </c>
@@ -4225,7 +4269,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="30" hidden="1">
+    <row r="62" spans="1:12" ht="30">
       <c r="A62" s="5" t="s">
         <v>81</v>
       </c>
@@ -4252,7 +4296,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="30" hidden="1">
+    <row r="63" spans="1:12" ht="30">
       <c r="A63" s="5" t="s">
         <v>488</v>
       </c>
@@ -4282,7 +4326,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="45" hidden="1">
+    <row r="64" spans="1:12" ht="45">
       <c r="A64" s="5" t="s">
         <v>348</v>
       </c>
@@ -4318,7 +4362,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="45" hidden="1">
+    <row r="65" spans="1:12" ht="45">
       <c r="A65" s="5" t="s">
         <v>489</v>
       </c>
@@ -4459,7 +4503,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="30" hidden="1">
+    <row r="69" spans="1:12" ht="30">
       <c r="A69" s="5" t="s">
         <v>107</v>
       </c>
@@ -4489,7 +4533,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="45" hidden="1">
+    <row r="70" spans="1:12" ht="45">
       <c r="A70" s="5" t="s">
         <v>108</v>
       </c>
@@ -4519,7 +4563,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="30" hidden="1">
+    <row r="71" spans="1:12" ht="30">
       <c r="A71" s="5" t="s">
         <v>112</v>
       </c>
@@ -4549,7 +4593,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="45" hidden="1">
+    <row r="72" spans="1:12" ht="45">
       <c r="A72" s="1" t="s">
         <v>490</v>
       </c>
@@ -4582,7 +4626,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="45" hidden="1">
+    <row r="73" spans="1:12" ht="45">
       <c r="A73" s="1" t="s">
         <v>491</v>
       </c>
@@ -4615,7 +4659,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="45" hidden="1">
+    <row r="74" spans="1:12" ht="45">
       <c r="A74" s="5" t="s">
         <v>118</v>
       </c>
@@ -4645,7 +4689,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="45" hidden="1">
+    <row r="75" spans="1:12" ht="45">
       <c r="A75" s="5" t="s">
         <v>119</v>
       </c>
@@ -4675,7 +4719,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="45" hidden="1">
+    <row r="76" spans="1:12" ht="45">
       <c r="A76" s="5" t="s">
         <v>161</v>
       </c>
@@ -4705,7 +4749,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="45" hidden="1">
+    <row r="77" spans="1:12" ht="45">
       <c r="A77" s="5" t="s">
         <v>164</v>
       </c>
@@ -5077,7 +5121,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="45" hidden="1">
+    <row r="88" spans="1:12" ht="45">
       <c r="A88" s="5" t="s">
         <v>183</v>
       </c>
@@ -5107,7 +5151,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="30" hidden="1">
+    <row r="89" spans="1:12" ht="30">
       <c r="A89" s="5" t="s">
         <v>234</v>
       </c>
@@ -5141,7 +5185,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="30" hidden="1">
+    <row r="90" spans="1:12" ht="30">
       <c r="A90" s="5" t="s">
         <v>235</v>
       </c>
@@ -5175,7 +5219,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="30" hidden="1">
+    <row r="91" spans="1:12" ht="30">
       <c r="A91" s="5" t="s">
         <v>236</v>
       </c>
@@ -5209,7 +5253,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="45" hidden="1">
+    <row r="92" spans="1:12" ht="45">
       <c r="A92" s="5" t="s">
         <v>237</v>
       </c>
@@ -5243,7 +5287,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="93" spans="1:12" hidden="1">
+    <row r="93" spans="1:12">
       <c r="A93" s="5" t="s">
         <v>195</v>
       </c>
@@ -5273,7 +5317,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="94" spans="1:12" hidden="1">
+    <row r="94" spans="1:12">
       <c r="A94" s="5" t="s">
         <v>196</v>
       </c>
@@ -5303,7 +5347,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="30" hidden="1">
+    <row r="95" spans="1:12" ht="30">
       <c r="A95" s="5" t="s">
         <v>197</v>
       </c>
@@ -5459,7 +5503,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="30" hidden="1">
+    <row r="100" spans="1:12" ht="30">
       <c r="A100" s="5" t="s">
         <v>222</v>
       </c>
@@ -5489,7 +5533,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="45" hidden="1">
+    <row r="101" spans="1:12" ht="45">
       <c r="A101" s="5" t="s">
         <v>223</v>
       </c>
@@ -5519,7 +5563,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="45" hidden="1">
+    <row r="102" spans="1:12" ht="45">
       <c r="A102" s="9" t="s">
         <v>224</v>
       </c>
@@ -5549,7 +5593,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="103" spans="1:12" hidden="1">
+    <row r="103" spans="1:12">
       <c r="A103" s="5" t="s">
         <v>233</v>
       </c>
@@ -5576,7 +5620,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="30" hidden="1">
+    <row r="104" spans="1:12" ht="30">
       <c r="A104" s="5" t="s">
         <v>184</v>
       </c>
@@ -5606,7 +5650,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="30" hidden="1">
+    <row r="105" spans="1:12" ht="30">
       <c r="A105" s="5" t="s">
         <v>185</v>
       </c>
@@ -5636,7 +5680,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="30" hidden="1">
+    <row r="106" spans="1:12" ht="30">
       <c r="A106" s="5" t="s">
         <v>186</v>
       </c>
@@ -5666,7 +5710,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="45" hidden="1">
+    <row r="107" spans="1:12" ht="45">
       <c r="A107" s="5" t="s">
         <v>187</v>
       </c>
@@ -5696,7 +5740,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="30" hidden="1">
+    <row r="108" spans="1:12" ht="30">
       <c r="A108" s="1" t="s">
         <v>253</v>
       </c>
@@ -5726,7 +5770,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="60" hidden="1">
+    <row r="109" spans="1:12" ht="60">
       <c r="A109" s="1" t="s">
         <v>254</v>
       </c>
@@ -5756,7 +5800,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="60" hidden="1">
+    <row r="110" spans="1:12" ht="60">
       <c r="A110" s="1" t="s">
         <v>255</v>
       </c>
@@ -5786,7 +5830,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="45" hidden="1">
+    <row r="111" spans="1:12" ht="45">
       <c r="A111" s="1" t="s">
         <v>256</v>
       </c>
@@ -5816,7 +5860,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="45" hidden="1">
+    <row r="112" spans="1:12" ht="45">
       <c r="A112" s="1" t="s">
         <v>257</v>
       </c>
@@ -5846,7 +5890,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="45" hidden="1">
+    <row r="113" spans="1:12" ht="45">
       <c r="A113" s="1" t="s">
         <v>258</v>
       </c>
@@ -5876,7 +5920,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="45" hidden="1">
+    <row r="114" spans="1:12" ht="45">
       <c r="A114" s="1" t="s">
         <v>259</v>
       </c>
@@ -5906,7 +5950,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="60" hidden="1">
+    <row r="115" spans="1:12" ht="60">
       <c r="A115" s="1" t="s">
         <v>260</v>
       </c>
@@ -5936,7 +5980,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="45" hidden="1">
+    <row r="116" spans="1:12" ht="45">
       <c r="A116" s="1" t="s">
         <v>261</v>
       </c>
@@ -5966,7 +6010,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="30" hidden="1">
+    <row r="117" spans="1:12" ht="30">
       <c r="A117" s="1" t="s">
         <v>262</v>
       </c>
@@ -5996,7 +6040,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="45" hidden="1">
+    <row r="118" spans="1:12" ht="45">
       <c r="A118" s="1" t="s">
         <v>263</v>
       </c>
@@ -6026,7 +6070,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="45" hidden="1">
+    <row r="119" spans="1:12" ht="45">
       <c r="A119" s="1" t="s">
         <v>264</v>
       </c>
@@ -6056,7 +6100,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="45" hidden="1">
+    <row r="120" spans="1:12" ht="45">
       <c r="A120" s="1" t="s">
         <v>265</v>
       </c>
@@ -6086,7 +6130,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="45" hidden="1">
+    <row r="121" spans="1:12" ht="45">
       <c r="A121" s="1" t="s">
         <v>266</v>
       </c>
@@ -6116,7 +6160,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="30" hidden="1">
+    <row r="122" spans="1:12" ht="30">
       <c r="A122" s="1" t="s">
         <v>267</v>
       </c>
@@ -6146,7 +6190,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="45" hidden="1">
+    <row r="123" spans="1:12" ht="45">
       <c r="A123" s="1" t="s">
         <v>268</v>
       </c>
@@ -6176,7 +6220,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="124" spans="1:12" hidden="1">
+    <row r="124" spans="1:12">
       <c r="A124" s="1" t="s">
         <v>269</v>
       </c>
@@ -6206,7 +6250,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="45" hidden="1">
+    <row r="125" spans="1:12" ht="45">
       <c r="A125" s="1" t="s">
         <v>270</v>
       </c>
@@ -6236,7 +6280,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="45" hidden="1">
+    <row r="126" spans="1:12" ht="45">
       <c r="A126" s="1" t="s">
         <v>271</v>
       </c>
@@ -6266,7 +6310,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="127" spans="1:12" hidden="1">
+    <row r="127" spans="1:12">
       <c r="A127" s="1" t="s">
         <v>272</v>
       </c>
@@ -6296,7 +6340,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="45" hidden="1">
+    <row r="128" spans="1:12" ht="45">
       <c r="A128" s="1" t="s">
         <v>273</v>
       </c>
@@ -6326,7 +6370,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="45" hidden="1">
+    <row r="129" spans="1:12" ht="45">
       <c r="A129" s="1" t="s">
         <v>274</v>
       </c>
@@ -6356,7 +6400,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="130" spans="1:12" hidden="1">
+    <row r="130" spans="1:12">
       <c r="A130" s="5" t="s">
         <v>492</v>
       </c>
@@ -6388,7 +6432,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="30" hidden="1">
+    <row r="131" spans="1:12" ht="30">
       <c r="A131" s="5" t="s">
         <v>493</v>
       </c>
@@ -6420,7 +6464,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="132" spans="1:12" hidden="1">
+    <row r="132" spans="1:12">
       <c r="A132" s="5" t="s">
         <v>494</v>
       </c>
@@ -6452,7 +6496,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="30" hidden="1">
+    <row r="133" spans="1:12" ht="30">
       <c r="A133" s="5" t="s">
         <v>495</v>
       </c>
@@ -6484,7 +6528,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="45" hidden="1">
+    <row r="134" spans="1:12" ht="45">
       <c r="A134" s="5" t="s">
         <v>309</v>
       </c>
@@ -6513,7 +6557,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="45" hidden="1">
+    <row r="135" spans="1:12" ht="45">
       <c r="A135" s="5" t="s">
         <v>310</v>
       </c>
@@ -6542,7 +6586,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="45" hidden="1">
+    <row r="136" spans="1:12" ht="45">
       <c r="A136" s="5" t="s">
         <v>311</v>
       </c>
@@ -6571,7 +6615,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="45" hidden="1">
+    <row r="137" spans="1:12" ht="45">
       <c r="A137" s="5" t="s">
         <v>312</v>
       </c>
@@ -6600,7 +6644,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="45" hidden="1">
+    <row r="138" spans="1:12" ht="45">
       <c r="A138" s="5" t="s">
         <v>313</v>
       </c>
@@ -6629,7 +6673,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="45" hidden="1">
+    <row r="139" spans="1:12" ht="45">
       <c r="A139" s="5" t="s">
         <v>314</v>
       </c>
@@ -6658,7 +6702,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="30" hidden="1">
+    <row r="140" spans="1:12" ht="30">
       <c r="A140" s="5" t="s">
         <v>315</v>
       </c>
@@ -6687,7 +6731,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="45" hidden="1">
+    <row r="141" spans="1:12" ht="45">
       <c r="A141" s="5" t="s">
         <v>316</v>
       </c>
@@ -6716,7 +6760,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="45" hidden="1">
+    <row r="142" spans="1:12" ht="45">
       <c r="A142" s="5" t="s">
         <v>317</v>
       </c>
@@ -6745,7 +6789,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="45" hidden="1">
+    <row r="143" spans="1:12" ht="45">
       <c r="A143" s="5" t="s">
         <v>318</v>
       </c>
@@ -6774,7 +6818,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="45" hidden="1">
+    <row r="144" spans="1:12" ht="45">
       <c r="A144" s="5" t="s">
         <v>319</v>
       </c>
@@ -6803,7 +6847,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="30" hidden="1">
+    <row r="145" spans="1:12" ht="30">
       <c r="A145" s="5" t="s">
         <v>320</v>
       </c>
@@ -6832,7 +6876,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="45" hidden="1">
+    <row r="146" spans="1:12" ht="45">
       <c r="A146" s="5" t="s">
         <v>321</v>
       </c>
@@ -6861,7 +6905,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="45" hidden="1">
+    <row r="147" spans="1:12" ht="45">
       <c r="A147" s="5" t="s">
         <v>322</v>
       </c>
@@ -7064,7 +7108,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="45" hidden="1">
+    <row r="154" spans="1:12" ht="45">
       <c r="A154" s="5" t="s">
         <v>379</v>
       </c>
@@ -7093,7 +7137,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="45" hidden="1">
+    <row r="155" spans="1:12" ht="45">
       <c r="A155" s="5" t="s">
         <v>380</v>
       </c>
@@ -7122,7 +7166,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="45" hidden="1">
+    <row r="156" spans="1:12" ht="45">
       <c r="A156" s="5" t="s">
         <v>381</v>
       </c>
@@ -7151,7 +7195,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="30" hidden="1">
+    <row r="157" spans="1:12" ht="30">
       <c r="A157" s="5" t="s">
         <v>400</v>
       </c>
@@ -7180,7 +7224,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="30" hidden="1">
+    <row r="158" spans="1:12" ht="30">
       <c r="A158" s="5" t="s">
         <v>401</v>
       </c>
@@ -7209,7 +7253,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="30" hidden="1">
+    <row r="159" spans="1:12" ht="30">
       <c r="A159" s="5" t="s">
         <v>402</v>
       </c>
@@ -7238,7 +7282,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="30" hidden="1">
+    <row r="160" spans="1:12" ht="30">
       <c r="A160" s="5" t="s">
         <v>403</v>
       </c>
@@ -7267,7 +7311,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="161" spans="1:12" hidden="1">
+    <row r="161" spans="1:12">
       <c r="A161" s="5" t="s">
         <v>404</v>
       </c>
@@ -7296,7 +7340,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="30" hidden="1">
+    <row r="162" spans="1:12" ht="30">
       <c r="A162" s="5" t="s">
         <v>405</v>
       </c>
@@ -7325,7 +7369,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="30" hidden="1">
+    <row r="163" spans="1:12" ht="30">
       <c r="A163" s="5" t="s">
         <v>406</v>
       </c>
@@ -7354,7 +7398,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="30" hidden="1">
+    <row r="164" spans="1:12" ht="30">
       <c r="A164" s="5" t="s">
         <v>407</v>
       </c>
@@ -7383,7 +7427,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="30" hidden="1">
+    <row r="165" spans="1:12" ht="30">
       <c r="A165" s="5" t="s">
         <v>408</v>
       </c>
@@ -7412,7 +7456,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="30" hidden="1">
+    <row r="166" spans="1:12" ht="30">
       <c r="A166" s="5" t="s">
         <v>409</v>
       </c>
@@ -7441,7 +7485,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="167" spans="1:12" hidden="1">
+    <row r="167" spans="1:12">
       <c r="A167" s="5" t="s">
         <v>410</v>
       </c>
@@ -7470,7 +7514,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="168" spans="1:12" hidden="1">
+    <row r="168" spans="1:12">
       <c r="A168" s="5" t="s">
         <v>411</v>
       </c>
@@ -7499,7 +7543,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="30" hidden="1">
+    <row r="169" spans="1:12" ht="30">
       <c r="A169" s="5" t="s">
         <v>412</v>
       </c>
@@ -7528,7 +7572,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="30" hidden="1">
+    <row r="170" spans="1:12" ht="30">
       <c r="A170" s="5" t="s">
         <v>413</v>
       </c>
@@ -7557,7 +7601,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="171" spans="1:12" hidden="1">
+    <row r="171" spans="1:12">
       <c r="A171" s="5" t="s">
         <v>416</v>
       </c>
@@ -7586,7 +7630,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="30" hidden="1">
+    <row r="172" spans="1:12" ht="30">
       <c r="A172" s="5" t="s">
         <v>415</v>
       </c>
@@ -7615,7 +7659,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="30" hidden="1">
+    <row r="173" spans="1:12" ht="30">
       <c r="A173" s="5" t="s">
         <v>414</v>
       </c>
@@ -7818,7 +7862,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="180" spans="1:12" hidden="1">
+    <row r="180" spans="1:12">
       <c r="A180" s="5" t="s">
         <v>496</v>
       </c>
@@ -7847,7 +7891,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="30" hidden="1">
+    <row r="181" spans="1:12" ht="30">
       <c r="A181" s="5" t="s">
         <v>497</v>
       </c>
@@ -7876,7 +7920,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="30" hidden="1">
+    <row r="182" spans="1:12" ht="30">
       <c r="A182" s="5" t="s">
         <v>467</v>
       </c>
@@ -7905,7 +7949,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="30" hidden="1">
+    <row r="183" spans="1:12" ht="30">
       <c r="A183" s="5" t="s">
         <v>468</v>
       </c>
@@ -7934,7 +7978,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="30" hidden="1">
+    <row r="184" spans="1:12" ht="30">
       <c r="A184" s="5" t="s">
         <v>469</v>
       </c>
@@ -7963,7 +8007,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="30" hidden="1">
+    <row r="185" spans="1:12" ht="30">
       <c r="A185" s="5" t="s">
         <v>470</v>
       </c>
@@ -7992,7 +8036,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="45" hidden="1">
+    <row r="186" spans="1:12" ht="45">
       <c r="A186" s="5" t="s">
         <v>504</v>
       </c>
@@ -8021,7 +8065,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="187" spans="1:12" hidden="1">
+    <row r="187" spans="1:12">
       <c r="A187" t="s">
         <v>507</v>
       </c>
@@ -8054,7 +8098,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="30" hidden="1">
+    <row r="188" spans="1:12" ht="30">
       <c r="A188" s="5" t="s">
         <v>516</v>
       </c>
@@ -8086,7 +8130,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="189" spans="1:12" ht="30" hidden="1">
+    <row r="189" spans="1:12" ht="30">
       <c r="A189" s="5" t="s">
         <v>517</v>
       </c>
@@ -8118,7 +8162,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="30" hidden="1">
+    <row r="190" spans="1:12" ht="30">
       <c r="A190" s="5" t="s">
         <v>518</v>
       </c>
@@ -8150,45 +8194,182 @@
         <v>512</v>
       </c>
     </row>
+    <row r="191" spans="1:12" ht="30">
+      <c r="A191" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="D191" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="E191" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H191" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="I191" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K191" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L191" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" ht="30">
+      <c r="A192" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="D192" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="E192" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H192" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="I192" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K192" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L192" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" ht="30">
+      <c r="A193" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="D193" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="E193" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H193" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="I193" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K193" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L193" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" ht="30">
+      <c r="A194" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="D194" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="E194" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H194" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="I194" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K194" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L194" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" ht="45">
+      <c r="A195" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="D195" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="E195" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H195" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="I195" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K195" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L195" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" ht="45">
+      <c r="A196" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="D196" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="E196" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H196" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="I196" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K196" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L196" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L190" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="XRechnung CII Invoice V1.1"/>
-        <filter val="XRechnung CII Invoice V1.2"/>
-        <filter val="XRechnung CII Invoice V1.3"/>
-        <filter val="XRechnung CII Invoice V1.3 Extension"/>
-        <filter val="XRechnung CII Invoice V2.0"/>
-        <filter val="XRechnung CII Invoice V2.0 (invalid)"/>
-        <filter val="XRechnung CII Invoice V2.0 Extension"/>
-        <filter val="XRechnung CII Invoice V2.0 Extension (invalid)"/>
-        <filter val="XRechnung CII Invoice V2.1"/>
-        <filter val="XRechnung CII Invoice V2.1 Extension"/>
-        <filter val="XRechnung CII Invoice V2.2"/>
-        <filter val="XRechnung CII Invoice V2.2 Extension"/>
-        <filter val="XRechnung UBL CreditNote V1.1"/>
-        <filter val="XRechnung UBL CreditNote V1.2"/>
-        <filter val="XRechnung UBL CreditNote V1.3"/>
-        <filter val="XRechnung UBL CreditNote V1.3 Extension"/>
-        <filter val="XRechnung UBL CreditNote V2.0"/>
-        <filter val="XRechnung UBL CreditNote V2.0 Extension"/>
-        <filter val="XRechnung UBL CreditNote V2.1"/>
-        <filter val="XRechnung UBL CreditNote V2.1 Extension"/>
-        <filter val="XRechnung UBL CreditNote V2.2"/>
-        <filter val="XRechnung UBL CreditNote V2.2 Extension"/>
-        <filter val="XRechnung UBL Invoice V1.1"/>
-        <filter val="XRechnung UBL Invoice V1.2"/>
-        <filter val="XRechnung UBL Invoice V1.3"/>
-        <filter val="XRechnung UBL Invoice V1.3 Extension"/>
-        <filter val="XRechnung UBL Invoice V2.0"/>
-        <filter val="XRechnung UBL Invoice V2.0 Extension"/>
-        <filter val="XRechnung UBL Invoice V2.1"/>
-        <filter val="XRechnung UBL Invoice V2.1 Extension"/>
-        <filter val="XRechnung UBL Invoice V2.2"/>
-        <filter val="XRechnung UBL Invoice V2.2 Extension"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L190" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/work-in-progress/Peppol Code Lists - Document types v8.4.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v8.4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5AED9D-AA4E-426F-8963-70E9FA299006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D609B0-EA5A-4E14-86B8-0DE89AEB67BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23565" yWindow="1065" windowWidth="27135" windowHeight="19170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="525" windowWidth="27135" windowHeight="19170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Type" sheetId="5" r:id="rId1"/>
@@ -956,13 +956,7 @@
     <t>cenbii-procid-ubl::urn:fdc:bits.no:2017:profile:11:1.0</t>
   </si>
   <si>
-    <t>urn:oasis:names:specification:ubl:schema:xsd:Enquiry-2::Enquiry##urn:fdc:peppol.eu:prac:trns:t007:1.0::2.2 </t>
-  </si>
-  <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:EnquiryResponse-2::EnquiryResponse##urn:fdc:peppol.eu:prac:trns:t008:1.0::2.2</t>
-  </si>
-  <si>
-    <t>urn:oasis:names:specification:ubl:schema:xsd:Enquiry-2::Enquiry##urn:fdc:peppol.eu:prac:trns:t009:1.0::2.2 </t>
   </si>
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:EnquiryResponse-2::EnquiryResponse##urn:fdc:peppol.eu:prac:trns:t010:1.0::2.2</t>
@@ -1696,6 +1690,12 @@
   </si>
   <si>
     <t>TICC-244</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:Enquiry-2::Enquiry##urn:fdc:peppol.eu:prac:trns:t007:1.0::2.2</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:Enquiry-2::Enquiry##urn:fdc:peppol.eu:prac:trns:t009:1.0::2.2</t>
   </si>
 </sst>
 </file>
@@ -2302,8 +2302,8 @@
   <dimension ref="A1:L196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A197" sqref="A197"/>
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2334,22 +2334,22 @@
         <v>127</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>113</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>114</v>
@@ -2375,7 +2375,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F2" s="6">
         <v>2</v>
@@ -2408,7 +2408,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F3" s="6">
         <v>2</v>
@@ -2441,7 +2441,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F4" s="6">
         <v>2</v>
@@ -2474,7 +2474,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F5" s="6">
         <v>2</v>
@@ -2507,7 +2507,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F6" s="6">
         <v>2</v>
@@ -2540,7 +2540,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F7" s="6">
         <v>2</v>
@@ -2573,7 +2573,7 @@
         <v>27</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F8" s="6">
         <v>7</v>
@@ -2606,7 +2606,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F9" s="6">
         <v>2</v>
@@ -2627,7 +2627,7 @@
     </row>
     <row r="10" spans="1:12" ht="45">
       <c r="A10" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>56</v>
@@ -2639,13 +2639,13 @@
         <v>27</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F10" s="6">
         <v>3</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I10" s="5" t="b">
         <f>TRUE</f>
@@ -2675,7 +2675,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F11" s="6">
         <v>7</v>
@@ -2708,7 +2708,7 @@
         <v>16</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F12" s="6">
         <v>2</v>
@@ -2741,7 +2741,7 @@
         <v>27</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F13" s="6">
         <v>7</v>
@@ -2774,7 +2774,7 @@
         <v>17</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F14" s="6">
         <v>2</v>
@@ -2807,7 +2807,7 @@
         <v>17</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F15" s="6">
         <v>2</v>
@@ -2840,7 +2840,7 @@
         <v>17</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F16" s="6">
         <v>2</v>
@@ -2873,7 +2873,7 @@
         <v>27</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F17" s="6">
         <v>7</v>
@@ -2906,7 +2906,7 @@
         <v>27</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F18" s="6">
         <v>7</v>
@@ -2939,7 +2939,7 @@
         <v>16</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F19" s="6">
         <v>7</v>
@@ -2972,7 +2972,7 @@
         <v>16</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F20" s="6">
         <v>7</v>
@@ -3005,7 +3005,7 @@
         <v>16</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F21" s="6">
         <v>7</v>
@@ -3038,7 +3038,7 @@
         <v>16</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F22" s="6">
         <v>7</v>
@@ -3071,7 +3071,7 @@
         <v>16</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F23" s="6">
         <v>7</v>
@@ -3104,7 +3104,7 @@
         <v>16</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F24" s="6">
         <v>7</v>
@@ -3137,7 +3137,7 @@
         <v>23</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F25" s="6">
         <v>2</v>
@@ -3167,7 +3167,7 @@
         <v>23</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I26" s="5" t="b">
         <f>FALSE</f>
@@ -3194,7 +3194,7 @@
         <v>27</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F27" s="6">
         <v>7</v>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="28" spans="1:12" ht="45">
       <c r="A28" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>56</v>
@@ -3227,13 +3227,13 @@
         <v>27</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F28" s="6">
         <v>3</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I28" s="5" t="b">
         <f>TRUE</f>
@@ -3263,7 +3263,7 @@
         <v>3</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F29" s="6">
         <v>7</v>
@@ -3296,7 +3296,7 @@
         <v>27</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F30" s="6">
         <v>7</v>
@@ -3329,7 +3329,7 @@
         <v>27</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F31" s="6">
         <v>7</v>
@@ -3350,7 +3350,7 @@
     </row>
     <row r="32" spans="1:12" ht="30">
       <c r="A32" s="5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>56</v>
@@ -3362,7 +3362,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I32" s="5" t="b">
         <f>TRUE</f>
@@ -3380,7 +3380,7 @@
     </row>
     <row r="33" spans="1:12" ht="30">
       <c r="A33" s="5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>56</v>
@@ -3392,7 +3392,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I33" s="5" t="b">
         <f>TRUE</f>
@@ -3422,7 +3422,7 @@
         <v>3</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I34" s="5" t="b">
         <f>FALSE</f>
@@ -3437,7 +3437,7 @@
     </row>
     <row r="35" spans="1:12" ht="45">
       <c r="A35" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>56</v>
@@ -3449,13 +3449,13 @@
         <v>3</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>297</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I35" s="5" t="b">
         <f>FALSE</f>
@@ -3476,16 +3476,16 @@
         <v>56</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>297</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I36" s="5" t="b">
         <f>FALSE</f>
@@ -3500,7 +3500,7 @@
     </row>
     <row r="37" spans="1:12" ht="30">
       <c r="A37" s="5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>56</v>
@@ -3512,7 +3512,7 @@
         <v>3</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I37" s="5" t="b">
         <f>TRUE</f>
@@ -3530,7 +3530,7 @@
     </row>
     <row r="38" spans="1:12" ht="45">
       <c r="A38" s="5" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>56</v>
@@ -3542,7 +3542,7 @@
         <v>3</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I38" s="5" t="b">
         <f>TRUE</f>
@@ -3560,7 +3560,7 @@
     </row>
     <row r="39" spans="1:12" ht="45">
       <c r="A39" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>56</v>
@@ -3572,7 +3572,7 @@
         <v>3</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I39" s="5" t="b">
         <f>TRUE</f>
@@ -3590,7 +3590,7 @@
     </row>
     <row r="40" spans="1:12" ht="45">
       <c r="A40" s="5" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>56</v>
@@ -3602,7 +3602,7 @@
         <v>3</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I40" s="5" t="b">
         <f>TRUE</f>
@@ -3620,7 +3620,7 @@
     </row>
     <row r="41" spans="1:12" ht="45">
       <c r="A41" s="5" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>56</v>
@@ -3632,7 +3632,7 @@
         <v>3</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I41" s="5" t="b">
         <f>TRUE</f>
@@ -3650,7 +3650,7 @@
     </row>
     <row r="42" spans="1:12" ht="45">
       <c r="A42" s="5" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>56</v>
@@ -3662,7 +3662,7 @@
         <v>3</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I42" s="5" t="b">
         <f>TRUE</f>
@@ -3680,7 +3680,7 @@
     </row>
     <row r="43" spans="1:12" ht="45">
       <c r="A43" s="5" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>56</v>
@@ -3692,7 +3692,7 @@
         <v>3</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I43" s="5" t="b">
         <f>TRUE</f>
@@ -3722,7 +3722,7 @@
         <v>3</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F44" s="24">
         <v>5</v>
@@ -3731,7 +3731,7 @@
         <v>45070</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I44" s="21" t="b">
         <f>FALSE</f>
@@ -3758,7 +3758,7 @@
         <v>3</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F45" s="24">
         <v>5</v>
@@ -3767,7 +3767,7 @@
         <v>45070</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I45" s="21" t="b">
         <f>FALSE</f>
@@ -3794,7 +3794,7 @@
         <v>3</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F46" s="24">
         <v>5</v>
@@ -3803,7 +3803,7 @@
         <v>45070</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I46" s="21" t="b">
         <f>FALSE</f>
@@ -3830,10 +3830,10 @@
         <v>3</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I47" s="5" t="b">
         <f>FALSE</f>
@@ -3860,10 +3860,10 @@
         <v>3</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I48" s="5" t="b">
         <f>FALSE</f>
@@ -3890,10 +3890,10 @@
         <v>3</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="I49" s="5" t="b">
         <f>FALSE</f>
@@ -3920,10 +3920,10 @@
         <v>3</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="I50" s="5" t="b">
         <f>FALSE</f>
@@ -3938,7 +3938,7 @@
     </row>
     <row r="51" spans="1:12" ht="30">
       <c r="A51" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>56</v>
@@ -3950,7 +3950,7 @@
         <v>4</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F51" s="6">
         <v>7</v>
@@ -3971,7 +3971,7 @@
     </row>
     <row r="52" spans="1:12" ht="30">
       <c r="A52" s="5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>56</v>
@@ -3983,7 +3983,7 @@
         <v>4</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I52" s="5" t="b">
         <f>TRUE</f>
@@ -4001,7 +4001,7 @@
     </row>
     <row r="53" spans="1:12" ht="30">
       <c r="A53" s="5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>56</v>
@@ -4013,7 +4013,7 @@
         <v>4</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I53" s="5" t="b">
         <f>TRUE</f>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="54" spans="1:12" ht="45">
       <c r="A54" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>56</v>
@@ -4043,10 +4043,10 @@
         <v>4</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="I54" s="5" t="b">
         <f>TRUE</f>
@@ -4059,12 +4059,12 @@
         <v>117</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="30">
       <c r="A55" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>56</v>
@@ -4076,7 +4076,7 @@
         <v>4</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I55" s="5" t="b">
         <f>TRUE</f>
@@ -4094,7 +4094,7 @@
     </row>
     <row r="56" spans="1:12" ht="30">
       <c r="A56" s="5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>56</v>
@@ -4106,7 +4106,7 @@
         <v>4</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I56" s="5" t="b">
         <f>TRUE</f>
@@ -4124,7 +4124,7 @@
     </row>
     <row r="57" spans="1:12" ht="30">
       <c r="A57" s="5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>56</v>
@@ -4136,7 +4136,7 @@
         <v>4</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I57" s="5" t="b">
         <f>TRUE</f>
@@ -4154,7 +4154,7 @@
     </row>
     <row r="58" spans="1:12" ht="30">
       <c r="A58" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>56</v>
@@ -4166,7 +4166,7 @@
         <v>4</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I58" s="5" t="b">
         <f>TRUE</f>
@@ -4184,7 +4184,7 @@
     </row>
     <row r="59" spans="1:12" ht="30">
       <c r="A59" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>56</v>
@@ -4196,7 +4196,7 @@
         <v>4</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I59" s="5" t="b">
         <f>TRUE</f>
@@ -4214,7 +4214,7 @@
     </row>
     <row r="60" spans="1:12" ht="30">
       <c r="A60" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>56</v>
@@ -4226,7 +4226,7 @@
         <v>4</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I60" s="5" t="b">
         <f>TRUE</f>
@@ -4256,7 +4256,7 @@
         <v>4</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I61" s="5" t="b">
         <f>FALSE</f>
@@ -4283,7 +4283,7 @@
         <v>4</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I62" s="5" t="b">
         <f>FALSE</f>
@@ -4298,7 +4298,7 @@
     </row>
     <row r="63" spans="1:12" ht="30">
       <c r="A63" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>56</v>
@@ -4310,7 +4310,7 @@
         <v>4</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I63" s="5" t="b">
         <f>TRUE</f>
@@ -4328,7 +4328,7 @@
     </row>
     <row r="64" spans="1:12" ht="45">
       <c r="A64" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>56</v>
@@ -4340,13 +4340,13 @@
         <v>4</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F64" s="6">
         <v>6</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I64" s="5" t="b">
         <f>TRUE</f>
@@ -4364,7 +4364,7 @@
     </row>
     <row r="65" spans="1:12" ht="45">
       <c r="A65" s="5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>56</v>
@@ -4376,10 +4376,10 @@
         <v>6</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I65" s="5" t="b">
         <f>TRUE</f>
@@ -4409,16 +4409,16 @@
         <v>5</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F66" s="27" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G66" s="25">
         <v>45070</v>
       </c>
       <c r="H66" s="21" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="I66" s="21" t="b">
         <f>FALSE</f>
@@ -4445,16 +4445,16 @@
         <v>5</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F67" s="27" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G67" s="25">
         <v>45070</v>
       </c>
       <c r="H67" s="21" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="I67" s="21" t="b">
         <f>FALSE</f>
@@ -4481,16 +4481,16 @@
         <v>5</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F68" s="27" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G68" s="25">
         <v>45070</v>
       </c>
       <c r="H68" s="21" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="I68" s="21" t="b">
         <f>FALSE</f>
@@ -4517,7 +4517,7 @@
         <v>6</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H69" s="5" t="s">
         <v>216</v>
@@ -4547,7 +4547,7 @@
         <v>6</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H70" s="5" t="s">
         <v>217</v>
@@ -4577,7 +4577,7 @@
         <v>6</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H71" s="5" t="s">
         <v>218</v>
@@ -4595,7 +4595,7 @@
     </row>
     <row r="72" spans="1:12" ht="45">
       <c r="A72" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>56</v>
@@ -4607,7 +4607,7 @@
         <v>6</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H72" s="5" t="s">
         <v>215</v>
@@ -4628,7 +4628,7 @@
     </row>
     <row r="73" spans="1:12" ht="45">
       <c r="A73" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>56</v>
@@ -4640,7 +4640,7 @@
         <v>6</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>215</v>
@@ -4673,7 +4673,7 @@
         <v>6</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H74" s="5" t="s">
         <v>252</v>
@@ -4703,7 +4703,7 @@
         <v>6</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>252</v>
@@ -4733,7 +4733,7 @@
         <v>6</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H76" s="5" t="s">
         <v>214</v>
@@ -4763,7 +4763,7 @@
         <v>6</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H77" s="5" t="s">
         <v>214</v>
@@ -4793,7 +4793,7 @@
         <v>7</v>
       </c>
       <c r="E78" s="21" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F78" s="27" t="s">
         <v>206</v>
@@ -4802,7 +4802,7 @@
         <v>45070</v>
       </c>
       <c r="H78" s="21" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I78" s="21" t="b">
         <f>FALSE</f>
@@ -4829,7 +4829,7 @@
         <v>7</v>
       </c>
       <c r="E79" s="21" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F79" s="27" t="s">
         <v>206</v>
@@ -4838,7 +4838,7 @@
         <v>45070</v>
       </c>
       <c r="H79" s="21" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I79" s="21" t="b">
         <f>FALSE</f>
@@ -4865,7 +4865,7 @@
         <v>7</v>
       </c>
       <c r="E80" s="21" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F80" s="27" t="s">
         <v>206</v>
@@ -4874,7 +4874,7 @@
         <v>45070</v>
       </c>
       <c r="H80" s="21" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I80" s="21" t="b">
         <f>FALSE</f>
@@ -4901,7 +4901,7 @@
         <v>7</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H81" s="5" t="s">
         <v>213</v>
@@ -4931,7 +4931,7 @@
         <v>7</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H82" s="5" t="s">
         <v>213</v>
@@ -4961,7 +4961,7 @@
         <v>7</v>
       </c>
       <c r="E83" s="21" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F83" s="28" t="s">
         <v>245</v>
@@ -4970,7 +4970,7 @@
         <v>45070</v>
       </c>
       <c r="H83" s="21" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="I83" s="21" t="b">
         <f>FALSE</f>
@@ -4997,7 +4997,7 @@
         <v>245</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H84" s="5" t="s">
         <v>246</v>
@@ -5027,7 +5027,7 @@
         <v>7</v>
       </c>
       <c r="E85" s="21" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F85" s="27" t="s">
         <v>206</v>
@@ -5036,7 +5036,7 @@
         <v>45070</v>
       </c>
       <c r="H85" s="21" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="I85" s="21" t="b">
         <f>FALSE</f>
@@ -5063,7 +5063,7 @@
         <v>7</v>
       </c>
       <c r="E86" s="21" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F86" s="27" t="s">
         <v>206</v>
@@ -5072,7 +5072,7 @@
         <v>45070</v>
       </c>
       <c r="H86" s="21" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="I86" s="21" t="b">
         <f>FALSE</f>
@@ -5099,7 +5099,7 @@
         <v>7</v>
       </c>
       <c r="E87" s="21" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F87" s="27" t="s">
         <v>206</v>
@@ -5108,7 +5108,7 @@
         <v>45070</v>
       </c>
       <c r="H87" s="21" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="I87" s="21" t="b">
         <f>FALSE</f>
@@ -5135,7 +5135,7 @@
         <v>7</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H88" s="5" t="s">
         <v>212</v>
@@ -5165,7 +5165,7 @@
         <v>7</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F89" s="8" t="s">
         <v>229</v>
@@ -5199,7 +5199,7 @@
         <v>7</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F90" s="8" t="s">
         <v>229</v>
@@ -5233,7 +5233,7 @@
         <v>7</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F91" s="8" t="s">
         <v>229</v>
@@ -5267,7 +5267,7 @@
         <v>7</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F92" s="8" t="s">
         <v>229</v>
@@ -5301,7 +5301,7 @@
         <v>7</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H93" s="5" t="s">
         <v>210</v>
@@ -5331,7 +5331,7 @@
         <v>7</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H94" s="5" t="s">
         <v>210</v>
@@ -5361,7 +5361,7 @@
         <v>7</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H95" s="5" t="s">
         <v>210</v>
@@ -5391,7 +5391,7 @@
         <v>206</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H96" s="5" t="s">
         <v>209</v>
@@ -5421,7 +5421,7 @@
         <v>206</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H97" s="5" t="s">
         <v>209</v>
@@ -5451,7 +5451,7 @@
         <v>206</v>
       </c>
       <c r="E98" s="21" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F98" s="28" t="s">
         <v>245</v>
@@ -5460,7 +5460,7 @@
         <v>45070</v>
       </c>
       <c r="H98" s="21" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="I98" s="21" t="b">
         <f>FALSE</f>
@@ -5487,7 +5487,7 @@
         <v>245</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H99" s="5" t="s">
         <v>246</v>
@@ -5517,7 +5517,7 @@
         <v>206</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H100" s="5" t="s">
         <v>251</v>
@@ -5547,7 +5547,7 @@
         <v>206</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H101" s="5" t="s">
         <v>219</v>
@@ -5577,7 +5577,7 @@
         <v>228</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H102" s="5" t="s">
         <v>226</v>
@@ -5607,7 +5607,7 @@
         <v>229</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H103" s="5" t="s">
         <v>231</v>
@@ -5634,7 +5634,7 @@
         <v>229</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H104" s="5" t="s">
         <v>242</v>
@@ -5647,7 +5647,7 @@
         <v>117</v>
       </c>
       <c r="L104" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="30">
@@ -5664,7 +5664,7 @@
         <v>229</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H105" s="5" t="s">
         <v>242</v>
@@ -5694,7 +5694,7 @@
         <v>229</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H106" s="5" t="s">
         <v>242</v>
@@ -5724,7 +5724,7 @@
         <v>229</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H107" s="5" t="s">
         <v>242</v>
@@ -5737,7 +5737,7 @@
         <v>117</v>
       </c>
       <c r="L107" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="30">
@@ -5754,7 +5754,7 @@
         <v>297</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H108" s="5" t="s">
         <v>298</v>
@@ -5764,10 +5764,10 @@
         <v>0</v>
       </c>
       <c r="K108" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="L108" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="60">
@@ -5784,7 +5784,7 @@
         <v>297</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H109" s="5" t="s">
         <v>298</v>
@@ -5794,10 +5794,10 @@
         <v>0</v>
       </c>
       <c r="K109" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="L109" s="5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="60">
@@ -5814,7 +5814,7 @@
         <v>297</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H110" s="5" t="s">
         <v>298</v>
@@ -5824,10 +5824,10 @@
         <v>0</v>
       </c>
       <c r="K110" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="L110" s="5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="45">
@@ -5844,7 +5844,7 @@
         <v>297</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H111" s="5" t="s">
         <v>298</v>
@@ -5854,10 +5854,10 @@
         <v>0</v>
       </c>
       <c r="K111" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="L111" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="45">
@@ -5874,7 +5874,7 @@
         <v>297</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H112" s="5" t="s">
         <v>298</v>
@@ -5884,10 +5884,10 @@
         <v>0</v>
       </c>
       <c r="K112" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="L112" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="45">
@@ -5904,7 +5904,7 @@
         <v>297</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H113" s="5" t="s">
         <v>298</v>
@@ -5914,10 +5914,10 @@
         <v>0</v>
       </c>
       <c r="K113" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="L113" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="45">
@@ -5934,7 +5934,7 @@
         <v>297</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H114" s="5" t="s">
         <v>298</v>
@@ -5944,10 +5944,10 @@
         <v>0</v>
       </c>
       <c r="K114" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="L114" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="60">
@@ -5964,7 +5964,7 @@
         <v>297</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H115" s="5" t="s">
         <v>298</v>
@@ -5974,10 +5974,10 @@
         <v>0</v>
       </c>
       <c r="K115" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="L115" s="5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="45">
@@ -5994,7 +5994,7 @@
         <v>297</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H116" s="5" t="s">
         <v>298</v>
@@ -6004,10 +6004,10 @@
         <v>0</v>
       </c>
       <c r="K116" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="L116" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="30">
@@ -6024,7 +6024,7 @@
         <v>297</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H117" s="5" t="s">
         <v>298</v>
@@ -6034,10 +6034,10 @@
         <v>0</v>
       </c>
       <c r="K117" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="L117" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="118" spans="1:12" ht="45">
@@ -6054,7 +6054,7 @@
         <v>297</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H118" s="5" t="s">
         <v>298</v>
@@ -6064,10 +6064,10 @@
         <v>0</v>
       </c>
       <c r="K118" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="L118" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="45">
@@ -6084,7 +6084,7 @@
         <v>297</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H119" s="5" t="s">
         <v>298</v>
@@ -6094,10 +6094,10 @@
         <v>0</v>
       </c>
       <c r="K119" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="L119" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="45">
@@ -6114,7 +6114,7 @@
         <v>297</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H120" s="5" t="s">
         <v>298</v>
@@ -6124,10 +6124,10 @@
         <v>0</v>
       </c>
       <c r="K120" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="L120" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="45">
@@ -6144,7 +6144,7 @@
         <v>297</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H121" s="5" t="s">
         <v>298</v>
@@ -6154,10 +6154,10 @@
         <v>0</v>
       </c>
       <c r="K121" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="L121" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="30">
@@ -6174,7 +6174,7 @@
         <v>297</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H122" s="5" t="s">
         <v>298</v>
@@ -6184,10 +6184,10 @@
         <v>0</v>
       </c>
       <c r="K122" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="L122" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="45">
@@ -6204,7 +6204,7 @@
         <v>297</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H123" s="5" t="s">
         <v>298</v>
@@ -6214,7 +6214,7 @@
         <v>0</v>
       </c>
       <c r="K123" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="L123" s="5" t="s">
         <v>299</v>
@@ -6234,7 +6234,7 @@
         <v>297</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H124" s="5" t="s">
         <v>298</v>
@@ -6244,7 +6244,7 @@
         <v>0</v>
       </c>
       <c r="K124" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="L124" s="5" t="s">
         <v>300</v>
@@ -6264,7 +6264,7 @@
         <v>297</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H125" s="5" t="s">
         <v>298</v>
@@ -6274,7 +6274,7 @@
         <v>0</v>
       </c>
       <c r="K125" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="L125" s="5" t="s">
         <v>300</v>
@@ -6294,7 +6294,7 @@
         <v>297</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H126" s="5" t="s">
         <v>298</v>
@@ -6304,7 +6304,7 @@
         <v>0</v>
       </c>
       <c r="K126" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="L126" s="5" t="s">
         <v>300</v>
@@ -6324,7 +6324,7 @@
         <v>297</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H127" s="5" t="s">
         <v>298</v>
@@ -6334,7 +6334,7 @@
         <v>0</v>
       </c>
       <c r="K127" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="L127" s="5" t="s">
         <v>301</v>
@@ -6354,7 +6354,7 @@
         <v>297</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H128" s="5" t="s">
         <v>298</v>
@@ -6364,7 +6364,7 @@
         <v>0</v>
       </c>
       <c r="K128" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="L128" s="5" t="s">
         <v>301</v>
@@ -6384,7 +6384,7 @@
         <v>297</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H129" s="5" t="s">
         <v>298</v>
@@ -6394,7 +6394,7 @@
         <v>0</v>
       </c>
       <c r="K129" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="L129" s="5" t="s">
         <v>301</v>
@@ -6402,22 +6402,22 @@
     </row>
     <row r="130" spans="1:12">
       <c r="A130" s="5" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>302</v>
+        <v>540</v>
       </c>
       <c r="D130" s="18" t="s">
         <v>297</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I130" s="5" t="b">
         <v>1</v>
@@ -6429,27 +6429,27 @@
         <v>116</v>
       </c>
       <c r="L130" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="30">
       <c r="A131" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D131" s="18" t="s">
         <v>297</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I131" s="5" t="b">
         <v>1</v>
@@ -6461,27 +6461,27 @@
         <v>116</v>
       </c>
       <c r="L131" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>304</v>
+        <v>541</v>
       </c>
       <c r="D132" s="18" t="s">
         <v>297</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I132" s="5" t="b">
         <v>1</v>
@@ -6493,27 +6493,27 @@
         <v>116</v>
       </c>
       <c r="L132" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="133" spans="1:12" ht="30">
       <c r="A133" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D133" s="18" t="s">
         <v>297</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I133" s="5" t="b">
         <v>1</v>
@@ -6525,27 +6525,27 @@
         <v>116</v>
       </c>
       <c r="L133" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="45">
       <c r="A134" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D134" s="18" t="s">
         <v>297</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I134" s="5" t="b">
         <v>0</v>
@@ -6559,22 +6559,22 @@
     </row>
     <row r="135" spans="1:12" ht="45">
       <c r="A135" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D135" s="18" t="s">
         <v>297</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I135" s="5" t="b">
         <v>0</v>
@@ -6588,22 +6588,22 @@
     </row>
     <row r="136" spans="1:12" ht="45">
       <c r="A136" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D136" s="18" t="s">
         <v>297</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I136" s="5" t="b">
         <v>0</v>
@@ -6617,22 +6617,22 @@
     </row>
     <row r="137" spans="1:12" ht="45">
       <c r="A137" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B137" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D137" s="18" t="s">
         <v>297</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I137" s="5" t="b">
         <v>0</v>
@@ -6646,22 +6646,22 @@
     </row>
     <row r="138" spans="1:12" ht="45">
       <c r="A138" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D138" s="18" t="s">
         <v>297</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I138" s="5" t="b">
         <v>0</v>
@@ -6675,22 +6675,22 @@
     </row>
     <row r="139" spans="1:12" ht="45">
       <c r="A139" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D139" s="18" t="s">
         <v>297</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I139" s="5" t="b">
         <v>0</v>
@@ -6699,85 +6699,85 @@
         <v>117</v>
       </c>
       <c r="L139" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="140" spans="1:12" ht="30">
       <c r="A140" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D140" s="18" t="s">
         <v>297</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H140" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="I140" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K140" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L140" s="5" t="s">
         <v>337</v>
-      </c>
-      <c r="I140" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K140" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="L140" s="5" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="45">
       <c r="A141" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D141" s="18" t="s">
         <v>297</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H141" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="I141" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K141" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L141" s="5" t="s">
         <v>337</v>
-      </c>
-      <c r="I141" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K141" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="L141" s="5" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="142" spans="1:12" ht="45">
       <c r="A142" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D142" s="18" t="s">
         <v>297</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I142" s="5" t="b">
         <v>0</v>
@@ -6786,27 +6786,27 @@
         <v>117</v>
       </c>
       <c r="L142" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="143" spans="1:12" ht="45">
       <c r="A143" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D143" s="18" t="s">
         <v>297</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I143" s="5" t="b">
         <v>0</v>
@@ -6815,27 +6815,27 @@
         <v>117</v>
       </c>
       <c r="L143" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="144" spans="1:12" ht="45">
       <c r="A144" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B144" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D144" s="18" t="s">
         <v>297</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I144" s="5" t="b">
         <v>0</v>
@@ -6844,27 +6844,27 @@
         <v>117</v>
       </c>
       <c r="L144" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="145" spans="1:12" ht="30">
       <c r="A145" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B145" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D145" s="18" t="s">
         <v>297</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I145" s="5" t="b">
         <v>0</v>
@@ -6873,27 +6873,27 @@
         <v>117</v>
       </c>
       <c r="L145" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="146" spans="1:12" ht="45">
       <c r="A146" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B146" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D146" s="18" t="s">
         <v>297</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I146" s="5" t="b">
         <v>0</v>
@@ -6902,27 +6902,27 @@
         <v>117</v>
       </c>
       <c r="L146" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="147" spans="1:12" ht="45">
       <c r="A147" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B147" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D147" s="18" t="s">
         <v>297</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I147" s="5" t="b">
         <v>0</v>
@@ -6931,27 +6931,27 @@
         <v>117</v>
       </c>
       <c r="L147" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="148" spans="1:12" ht="30">
       <c r="A148" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D148" s="18" t="s">
         <v>297</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I148" s="5" t="b">
         <v>0</v>
@@ -6965,22 +6965,22 @@
     </row>
     <row r="149" spans="1:12" ht="30">
       <c r="A149" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D149" s="18" t="s">
         <v>297</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I149" s="5" t="b">
         <v>0</v>
@@ -6994,22 +6994,22 @@
     </row>
     <row r="150" spans="1:12" ht="30">
       <c r="A150" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D150" s="18" t="s">
         <v>297</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I150" s="5" t="b">
         <v>0</v>
@@ -7023,22 +7023,22 @@
     </row>
     <row r="151" spans="1:12" ht="30">
       <c r="A151" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D151" s="18" t="s">
         <v>297</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I151" s="5" t="b">
         <v>0</v>
@@ -7052,22 +7052,22 @@
     </row>
     <row r="152" spans="1:12" ht="45">
       <c r="A152" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D152" s="18" t="s">
         <v>297</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I152" s="5" t="b">
         <v>0</v>
@@ -7081,22 +7081,22 @@
     </row>
     <row r="153" spans="1:12" ht="45">
       <c r="A153" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D153" s="18" t="s">
         <v>297</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H153" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I153" s="5" t="b">
         <v>0</v>
@@ -7110,52 +7110,52 @@
     </row>
     <row r="154" spans="1:12" ht="45">
       <c r="A154" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D154" s="18" t="s">
         <v>297</v>
       </c>
       <c r="E154" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H154" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="H154" s="5" t="s">
+      <c r="I154" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K154" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L154" s="5" t="s">
         <v>373</v>
-      </c>
-      <c r="I154" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K154" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="L154" s="5" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="155" spans="1:12" ht="45">
       <c r="A155" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D155" s="18" t="s">
         <v>297</v>
       </c>
       <c r="E155" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H155" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="H155" s="5" t="s">
-        <v>373</v>
-      </c>
       <c r="I155" s="5" t="b">
         <v>0</v>
       </c>
@@ -7163,28 +7163,28 @@
         <v>117</v>
       </c>
       <c r="L155" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="156" spans="1:12" ht="45">
       <c r="A156" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D156" s="18" t="s">
         <v>297</v>
       </c>
       <c r="E156" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H156" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="H156" s="5" t="s">
-        <v>373</v>
-      </c>
       <c r="I156" s="5" t="b">
         <v>0</v>
       </c>
@@ -7192,27 +7192,27 @@
         <v>117</v>
       </c>
       <c r="L156" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="157" spans="1:12" ht="30">
       <c r="A157" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D157" s="18" t="s">
         <v>297</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I157" s="5" t="b">
         <v>0</v>
@@ -7221,27 +7221,27 @@
         <v>116</v>
       </c>
       <c r="L157" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="158" spans="1:12" ht="30">
       <c r="A158" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D158" s="18" t="s">
         <v>297</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I158" s="5" t="b">
         <v>0</v>
@@ -7250,27 +7250,27 @@
         <v>116</v>
       </c>
       <c r="L158" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="159" spans="1:12" ht="30">
       <c r="A159" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D159" s="18" t="s">
         <v>297</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I159" s="5" t="b">
         <v>0</v>
@@ -7279,27 +7279,27 @@
         <v>116</v>
       </c>
       <c r="L159" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="160" spans="1:12" ht="30">
       <c r="A160" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D160" s="18" t="s">
         <v>297</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I160" s="5" t="b">
         <v>0</v>
@@ -7308,27 +7308,27 @@
         <v>116</v>
       </c>
       <c r="L160" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="161" spans="1:12">
       <c r="A161" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D161" s="18" t="s">
         <v>297</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I161" s="5" t="b">
         <v>0</v>
@@ -7337,27 +7337,27 @@
         <v>116</v>
       </c>
       <c r="L161" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="162" spans="1:12" ht="30">
       <c r="A162" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D162" s="18" t="s">
         <v>297</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I162" s="5" t="b">
         <v>0</v>
@@ -7366,27 +7366,27 @@
         <v>116</v>
       </c>
       <c r="L162" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="163" spans="1:12" ht="30">
       <c r="A163" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D163" s="18" t="s">
         <v>297</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I163" s="5" t="b">
         <v>0</v>
@@ -7395,27 +7395,27 @@
         <v>116</v>
       </c>
       <c r="L163" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="164" spans="1:12" ht="30">
       <c r="A164" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D164" s="18" t="s">
         <v>297</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I164" s="5" t="b">
         <v>0</v>
@@ -7424,27 +7424,27 @@
         <v>116</v>
       </c>
       <c r="L164" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="165" spans="1:12" ht="30">
       <c r="A165" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D165" s="18" t="s">
         <v>297</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H165" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I165" s="5" t="b">
         <v>0</v>
@@ -7453,27 +7453,27 @@
         <v>116</v>
       </c>
       <c r="L165" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="30">
       <c r="A166" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D166" s="18" t="s">
         <v>297</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I166" s="5" t="b">
         <v>0</v>
@@ -7482,27 +7482,27 @@
         <v>116</v>
       </c>
       <c r="L166" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="167" spans="1:12">
       <c r="A167" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D167" s="18" t="s">
         <v>297</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I167" s="5" t="b">
         <v>0</v>
@@ -7511,27 +7511,27 @@
         <v>116</v>
       </c>
       <c r="L167" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="168" spans="1:12">
       <c r="A168" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D168" s="18" t="s">
         <v>297</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H168" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I168" s="5" t="b">
         <v>0</v>
@@ -7540,27 +7540,27 @@
         <v>116</v>
       </c>
       <c r="L168" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="169" spans="1:12" ht="30">
       <c r="A169" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D169" s="18" t="s">
         <v>297</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H169" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I169" s="5" t="b">
         <v>0</v>
@@ -7569,27 +7569,27 @@
         <v>116</v>
       </c>
       <c r="L169" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="170" spans="1:12" ht="30">
       <c r="A170" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D170" s="18" t="s">
         <v>297</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H170" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I170" s="5" t="b">
         <v>0</v>
@@ -7598,27 +7598,27 @@
         <v>116</v>
       </c>
       <c r="L170" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="171" spans="1:12">
       <c r="A171" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D171" s="18" t="s">
         <v>297</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H171" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I171" s="5" t="b">
         <v>0</v>
@@ -7627,27 +7627,27 @@
         <v>116</v>
       </c>
       <c r="L171" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="172" spans="1:12" ht="30">
       <c r="A172" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D172" s="18" t="s">
         <v>297</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H172" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I172" s="5" t="b">
         <v>0</v>
@@ -7656,27 +7656,27 @@
         <v>116</v>
       </c>
       <c r="L172" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="173" spans="1:12" ht="30">
       <c r="A173" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D173" s="18" t="s">
         <v>297</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H173" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I173" s="5" t="b">
         <v>0</v>
@@ -7685,27 +7685,27 @@
         <v>116</v>
       </c>
       <c r="L173" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="174" spans="1:12" ht="30">
       <c r="A174" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D174" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H174" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I174" s="5" t="b">
         <v>0</v>
@@ -7719,22 +7719,22 @@
     </row>
     <row r="175" spans="1:12" ht="30">
       <c r="A175" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D175" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H175" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I175" s="5" t="b">
         <v>0</v>
@@ -7748,22 +7748,22 @@
     </row>
     <row r="176" spans="1:12" ht="30">
       <c r="A176" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D176" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H176" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I176" s="5" t="b">
         <v>0</v>
@@ -7777,22 +7777,22 @@
     </row>
     <row r="177" spans="1:12" ht="30">
       <c r="A177" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D177" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H177" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I177" s="5" t="b">
         <v>0</v>
@@ -7806,22 +7806,22 @@
     </row>
     <row r="178" spans="1:12" ht="45">
       <c r="A178" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="D178" s="18" t="s">
         <v>442</v>
       </c>
-      <c r="B178" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C178" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="D178" s="18" t="s">
-        <v>444</v>
-      </c>
       <c r="E178" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H178" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I178" s="5" t="b">
         <v>0</v>
@@ -7835,22 +7835,22 @@
     </row>
     <row r="179" spans="1:12" ht="45">
       <c r="A179" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C179" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="D179" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H179" s="5" t="s">
         <v>450</v>
-      </c>
-      <c r="D179" s="18" t="s">
-        <v>444</v>
-      </c>
-      <c r="E179" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="H179" s="5" t="s">
-        <v>452</v>
       </c>
       <c r="I179" s="5" t="b">
         <v>0</v>
@@ -7864,196 +7864,196 @@
     </row>
     <row r="180" spans="1:12">
       <c r="A180" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C180" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="D180" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H180" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="I180" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K180" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="D180" s="18" t="s">
-        <v>444</v>
-      </c>
-      <c r="E180" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="H180" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="I180" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K180" s="5" t="s">
-        <v>455</v>
-      </c>
       <c r="L180" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="181" spans="1:12" ht="30">
       <c r="A181" s="5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D181" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H181" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I181" s="5" t="b">
         <v>1</v>
       </c>
       <c r="K181" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L181" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="182" spans="1:12" ht="30">
       <c r="A182" s="5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D182" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H182" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="I182" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K182" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="I182" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K182" s="5" t="s">
-        <v>463</v>
-      </c>
       <c r="L182" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="183" spans="1:12" ht="30">
       <c r="A183" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C183" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="D183" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="E183" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H183" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="D183" s="18" t="s">
-        <v>444</v>
-      </c>
-      <c r="E183" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="H183" s="5" t="s">
+      <c r="I183" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K183" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="I183" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K183" s="5" t="s">
-        <v>463</v>
-      </c>
       <c r="L183" s="19" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="184" spans="1:12" ht="30">
       <c r="A184" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D184" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H184" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="I184" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K184" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="I184" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K184" s="5" t="s">
+      <c r="L184" s="19" t="s">
         <v>463</v>
-      </c>
-      <c r="L184" s="19" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="185" spans="1:12" ht="30">
       <c r="A185" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D185" s="17" t="s">
         <v>470</v>
       </c>
-      <c r="B185" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C185" s="5" t="s">
+      <c r="E185" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H185" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="I185" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K185" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L185" s="5" t="s">
         <v>471</v>
-      </c>
-      <c r="D185" s="17" t="s">
-        <v>472</v>
-      </c>
-      <c r="E185" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="H185" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="I185" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K185" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="L185" s="5" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="186" spans="1:12" ht="45">
       <c r="A186" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C186" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="B186" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C186" s="5" t="s">
-        <v>506</v>
-      </c>
       <c r="D186" s="17" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H186" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="I186" s="5" t="b">
         <v>0</v>
@@ -8067,22 +8067,22 @@
     </row>
     <row r="187" spans="1:12">
       <c r="A187" t="s">
+        <v>505</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C187" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="B187" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C187" s="5" t="s">
-        <v>509</v>
-      </c>
       <c r="D187" s="17" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H187" s="5" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="I187" s="5" t="b">
         <f>TRUE</f>
@@ -8100,22 +8100,22 @@
     </row>
     <row r="188" spans="1:12" ht="30">
       <c r="A188" s="5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H188" s="5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="I188" s="5" t="b">
         <v>1</v>
@@ -8127,27 +8127,27 @@
         <v>117</v>
       </c>
       <c r="L188" s="5" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="189" spans="1:12" ht="30">
       <c r="A189" s="5" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C189" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="D189" s="17" t="s">
         <v>513</v>
       </c>
-      <c r="D189" s="17" t="s">
-        <v>515</v>
-      </c>
       <c r="E189" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H189" s="5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="I189" s="5" t="b">
         <v>1</v>
@@ -8159,27 +8159,27 @@
         <v>117</v>
       </c>
       <c r="L189" s="5" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="190" spans="1:12" ht="30">
       <c r="A190" s="5" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H190" s="5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="I190" s="5" t="b">
         <v>1</v>
@@ -8191,27 +8191,27 @@
         <v>117</v>
       </c>
       <c r="L190" s="5" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="191" spans="1:12" ht="30">
       <c r="A191" s="5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D191" s="18" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H191" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="I191" s="5" t="b">
         <v>0</v>
@@ -8225,22 +8225,22 @@
     </row>
     <row r="192" spans="1:12" ht="30">
       <c r="A192" s="5" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C192" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="D192" s="18" t="s">
         <v>528</v>
       </c>
-      <c r="D192" s="18" t="s">
-        <v>530</v>
-      </c>
       <c r="E192" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H192" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="I192" s="5" t="b">
         <v>0</v>
@@ -8254,22 +8254,22 @@
     </row>
     <row r="193" spans="1:12" ht="30">
       <c r="A193" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C193" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="D193" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="E193" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H193" s="5" t="s">
         <v>529</v>
-      </c>
-      <c r="D193" s="18" t="s">
-        <v>530</v>
-      </c>
-      <c r="E193" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="H193" s="5" t="s">
-        <v>531</v>
       </c>
       <c r="I193" s="5" t="b">
         <v>0</v>
@@ -8283,22 +8283,22 @@
     </row>
     <row r="194" spans="1:12" ht="30">
       <c r="A194" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D194" s="18" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H194" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="I194" s="5" t="b">
         <v>0</v>
@@ -8312,22 +8312,22 @@
     </row>
     <row r="195" spans="1:12" ht="45">
       <c r="A195" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C195" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="B195" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C195" s="5" t="s">
-        <v>538</v>
-      </c>
       <c r="D195" s="18" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H195" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="I195" s="5" t="b">
         <v>0</v>
@@ -8341,22 +8341,22 @@
     </row>
     <row r="196" spans="1:12" ht="45">
       <c r="A196" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C196" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="B196" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C196" s="5" t="s">
+      <c r="D196" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="E196" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H196" s="5" t="s">
         <v>539</v>
-      </c>
-      <c r="D196" s="18" t="s">
-        <v>530</v>
-      </c>
-      <c r="E196" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="H196" s="5" t="s">
-        <v>541</v>
       </c>
       <c r="I196" s="5" t="b">
         <v>0</v>
